--- a/rider/annual/2017.xlsx
+++ b/rider/annual/2017.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="309" uniqueCount="164">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="521" uniqueCount="270">
   <si>
     <t>Weekday</t>
   </si>
@@ -506,6 +506,324 @@
   </si>
   <si>
     <t>05 Jun 2017</t>
+  </si>
+  <si>
+    <t>06 Jun 2017</t>
+  </si>
+  <si>
+    <t>07 Jun 2017</t>
+  </si>
+  <si>
+    <t>08 Jun 2017</t>
+  </si>
+  <si>
+    <t>09 Jun 2017</t>
+  </si>
+  <si>
+    <t>10 Jun 2017</t>
+  </si>
+  <si>
+    <t>11 Jun 2017</t>
+  </si>
+  <si>
+    <t>12 Jun 2017</t>
+  </si>
+  <si>
+    <t>13 Jun 2017</t>
+  </si>
+  <si>
+    <t>14 Jun 2017</t>
+  </si>
+  <si>
+    <t>15 Jun 2017</t>
+  </si>
+  <si>
+    <t>16 Jun 2017</t>
+  </si>
+  <si>
+    <t>17 Jun 2017</t>
+  </si>
+  <si>
+    <t>18 Jun 2017</t>
+  </si>
+  <si>
+    <t>19 Jun 2017</t>
+  </si>
+  <si>
+    <t>20 Jun 2017</t>
+  </si>
+  <si>
+    <t>21 Jun 2017</t>
+  </si>
+  <si>
+    <t>22 Jun 2017</t>
+  </si>
+  <si>
+    <t>23 Jun 2017</t>
+  </si>
+  <si>
+    <t>24 Jun 2017</t>
+  </si>
+  <si>
+    <t>25 Jun 2017</t>
+  </si>
+  <si>
+    <t>26 Jun 2017</t>
+  </si>
+  <si>
+    <t>27 Jun 2017</t>
+  </si>
+  <si>
+    <t>28 Jun 2017</t>
+  </si>
+  <si>
+    <t>29 Jun 2017</t>
+  </si>
+  <si>
+    <t>30 Jun 2017</t>
+  </si>
+  <si>
+    <t>01 Jul 2017</t>
+  </si>
+  <si>
+    <t>02 Jul 2017</t>
+  </si>
+  <si>
+    <t>03 Jul 2017</t>
+  </si>
+  <si>
+    <t>05 Jul 2017</t>
+  </si>
+  <si>
+    <t>06 Jul 2017</t>
+  </si>
+  <si>
+    <t>07 Jul 2017</t>
+  </si>
+  <si>
+    <t>08 Jul 2017</t>
+  </si>
+  <si>
+    <t>09 Jul 2017</t>
+  </si>
+  <si>
+    <t>10 Jul 2017</t>
+  </si>
+  <si>
+    <t>11 Jul 2017</t>
+  </si>
+  <si>
+    <t>12 Jul 2017</t>
+  </si>
+  <si>
+    <t>13 Jul 2017</t>
+  </si>
+  <si>
+    <t>14 Jul 2017</t>
+  </si>
+  <si>
+    <t>15 Jul 2017</t>
+  </si>
+  <si>
+    <t>16 Jul 2017</t>
+  </si>
+  <si>
+    <t>17 Jul 2017</t>
+  </si>
+  <si>
+    <t>18 Jul 2017</t>
+  </si>
+  <si>
+    <t>19 Jul 2017</t>
+  </si>
+  <si>
+    <t>20 Jul 2017</t>
+  </si>
+  <si>
+    <t>21 Jul 2017</t>
+  </si>
+  <si>
+    <t>22 Jul 2017</t>
+  </si>
+  <si>
+    <t>23 Jul 2017</t>
+  </si>
+  <si>
+    <t>24 Jul 2017</t>
+  </si>
+  <si>
+    <t>25 Jul 2017</t>
+  </si>
+  <si>
+    <t>26 Jul 2017</t>
+  </si>
+  <si>
+    <t>27 Jul 2017</t>
+  </si>
+  <si>
+    <t>28 Jul 2017</t>
+  </si>
+  <si>
+    <t>29 Jul 2017</t>
+  </si>
+  <si>
+    <t>30 Jul 2017</t>
+  </si>
+  <si>
+    <t>31 Jul 2017</t>
+  </si>
+  <si>
+    <t>01 Aug 2017</t>
+  </si>
+  <si>
+    <t>02 Aug 2017</t>
+  </si>
+  <si>
+    <t>03 Aug 2017</t>
+  </si>
+  <si>
+    <t>04 Aug 2017</t>
+  </si>
+  <si>
+    <t>05 Aug 2017</t>
+  </si>
+  <si>
+    <t>06 Aug 2017</t>
+  </si>
+  <si>
+    <t>07 Aug 2017</t>
+  </si>
+  <si>
+    <t>08 Aug 2017</t>
+  </si>
+  <si>
+    <t>09 Aug 2017</t>
+  </si>
+  <si>
+    <t>10 Aug 2017</t>
+  </si>
+  <si>
+    <t>11 Aug 2017</t>
+  </si>
+  <si>
+    <t>12 Aug 2017</t>
+  </si>
+  <si>
+    <t>13 Aug 2017</t>
+  </si>
+  <si>
+    <t>14 Aug 2017</t>
+  </si>
+  <si>
+    <t>15 Aug 2017</t>
+  </si>
+  <si>
+    <t>16 Aug 2017</t>
+  </si>
+  <si>
+    <t>17 Aug 2017</t>
+  </si>
+  <si>
+    <t>18 Aug 2017</t>
+  </si>
+  <si>
+    <t>19 Aug 2017</t>
+  </si>
+  <si>
+    <t>20 Aug 2017</t>
+  </si>
+  <si>
+    <t>21 Aug 2017</t>
+  </si>
+  <si>
+    <t>22 Aug 2017</t>
+  </si>
+  <si>
+    <t>23 Aug 2017</t>
+  </si>
+  <si>
+    <t>24 Aug 2017</t>
+  </si>
+  <si>
+    <t>25 Aug 2017</t>
+  </si>
+  <si>
+    <t>26 Aug 2017</t>
+  </si>
+  <si>
+    <t>27 Aug 2017</t>
+  </si>
+  <si>
+    <t>28 Aug 2017</t>
+  </si>
+  <si>
+    <t>29 Aug 2017</t>
+  </si>
+  <si>
+    <t>30 Aug 2017</t>
+  </si>
+  <si>
+    <t>31 Aug 2017</t>
+  </si>
+  <si>
+    <t>01 Sep 2017</t>
+  </si>
+  <si>
+    <t>02 Sep 2017</t>
+  </si>
+  <si>
+    <t>03 Sep 2017</t>
+  </si>
+  <si>
+    <t>05 Sep 2017</t>
+  </si>
+  <si>
+    <t>06 Sep 2017</t>
+  </si>
+  <si>
+    <t>07 Sep 2017</t>
+  </si>
+  <si>
+    <t>08 Sep 2017</t>
+  </si>
+  <si>
+    <t>09 Sep 2017</t>
+  </si>
+  <si>
+    <t>10 Sep 2017</t>
+  </si>
+  <si>
+    <t>11 Sep 2017</t>
+  </si>
+  <si>
+    <t>12 Sep 2017</t>
+  </si>
+  <si>
+    <t>13 Sep 2017</t>
+  </si>
+  <si>
+    <t>14 Sep 2017</t>
+  </si>
+  <si>
+    <t>15 Sep 2017</t>
+  </si>
+  <si>
+    <t>16 Sep 2017</t>
+  </si>
+  <si>
+    <t>17 Sep 2017</t>
+  </si>
+  <si>
+    <t>18 Sep 2017</t>
+  </si>
+  <si>
+    <t>19 Sep 2017</t>
+  </si>
+  <si>
+    <t>20 Sep 2017</t>
+  </si>
+  <si>
+    <t>21 Sep 2017</t>
   </si>
 </sst>
 </file>
@@ -596,9 +914,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Ridership!$B$2:$B$153</c:f>
+              <c:f>Ridership!$B$2:$B$259</c:f>
               <c:strCache>
-                <c:ptCount val="152"/>
+                <c:ptCount val="258"/>
                 <c:pt idx="0">
                   <c:v>02 Jan 2017</c:v>
                 </c:pt>
@@ -1054,471 +1372,1107 @@
                 </c:pt>
                 <c:pt idx="151">
                   <c:v>05 Jun 2017</c:v>
+                </c:pt>
+                <c:pt idx="152">
+                  <c:v>06 Jun 2017</c:v>
+                </c:pt>
+                <c:pt idx="153">
+                  <c:v>07 Jun 2017</c:v>
+                </c:pt>
+                <c:pt idx="154">
+                  <c:v>08 Jun 2017</c:v>
+                </c:pt>
+                <c:pt idx="155">
+                  <c:v>09 Jun 2017</c:v>
+                </c:pt>
+                <c:pt idx="156">
+                  <c:v>10 Jun 2017</c:v>
+                </c:pt>
+                <c:pt idx="157">
+                  <c:v>11 Jun 2017</c:v>
+                </c:pt>
+                <c:pt idx="158">
+                  <c:v>12 Jun 2017</c:v>
+                </c:pt>
+                <c:pt idx="159">
+                  <c:v>13 Jun 2017</c:v>
+                </c:pt>
+                <c:pt idx="160">
+                  <c:v>14 Jun 2017</c:v>
+                </c:pt>
+                <c:pt idx="161">
+                  <c:v>15 Jun 2017</c:v>
+                </c:pt>
+                <c:pt idx="162">
+                  <c:v>16 Jun 2017</c:v>
+                </c:pt>
+                <c:pt idx="163">
+                  <c:v>17 Jun 2017</c:v>
+                </c:pt>
+                <c:pt idx="164">
+                  <c:v>18 Jun 2017</c:v>
+                </c:pt>
+                <c:pt idx="165">
+                  <c:v>19 Jun 2017</c:v>
+                </c:pt>
+                <c:pt idx="166">
+                  <c:v>20 Jun 2017</c:v>
+                </c:pt>
+                <c:pt idx="167">
+                  <c:v>21 Jun 2017</c:v>
+                </c:pt>
+                <c:pt idx="168">
+                  <c:v>22 Jun 2017</c:v>
+                </c:pt>
+                <c:pt idx="169">
+                  <c:v>23 Jun 2017</c:v>
+                </c:pt>
+                <c:pt idx="170">
+                  <c:v>24 Jun 2017</c:v>
+                </c:pt>
+                <c:pt idx="171">
+                  <c:v>25 Jun 2017</c:v>
+                </c:pt>
+                <c:pt idx="172">
+                  <c:v>26 Jun 2017</c:v>
+                </c:pt>
+                <c:pt idx="173">
+                  <c:v>27 Jun 2017</c:v>
+                </c:pt>
+                <c:pt idx="174">
+                  <c:v>28 Jun 2017</c:v>
+                </c:pt>
+                <c:pt idx="175">
+                  <c:v>29 Jun 2017</c:v>
+                </c:pt>
+                <c:pt idx="176">
+                  <c:v>30 Jun 2017</c:v>
+                </c:pt>
+                <c:pt idx="177">
+                  <c:v>01 Jul 2017</c:v>
+                </c:pt>
+                <c:pt idx="178">
+                  <c:v>02 Jul 2017</c:v>
+                </c:pt>
+                <c:pt idx="179">
+                  <c:v>03 Jul 2017</c:v>
+                </c:pt>
+                <c:pt idx="180">
+                  <c:v>05 Jul 2017</c:v>
+                </c:pt>
+                <c:pt idx="181">
+                  <c:v>06 Jul 2017</c:v>
+                </c:pt>
+                <c:pt idx="182">
+                  <c:v>07 Jul 2017</c:v>
+                </c:pt>
+                <c:pt idx="183">
+                  <c:v>08 Jul 2017</c:v>
+                </c:pt>
+                <c:pt idx="184">
+                  <c:v>09 Jul 2017</c:v>
+                </c:pt>
+                <c:pt idx="185">
+                  <c:v>10 Jul 2017</c:v>
+                </c:pt>
+                <c:pt idx="186">
+                  <c:v>11 Jul 2017</c:v>
+                </c:pt>
+                <c:pt idx="187">
+                  <c:v>12 Jul 2017</c:v>
+                </c:pt>
+                <c:pt idx="188">
+                  <c:v>13 Jul 2017</c:v>
+                </c:pt>
+                <c:pt idx="189">
+                  <c:v>14 Jul 2017</c:v>
+                </c:pt>
+                <c:pt idx="190">
+                  <c:v>15 Jul 2017</c:v>
+                </c:pt>
+                <c:pt idx="191">
+                  <c:v>16 Jul 2017</c:v>
+                </c:pt>
+                <c:pt idx="192">
+                  <c:v>17 Jul 2017</c:v>
+                </c:pt>
+                <c:pt idx="193">
+                  <c:v>18 Jul 2017</c:v>
+                </c:pt>
+                <c:pt idx="194">
+                  <c:v>19 Jul 2017</c:v>
+                </c:pt>
+                <c:pt idx="195">
+                  <c:v>20 Jul 2017</c:v>
+                </c:pt>
+                <c:pt idx="196">
+                  <c:v>21 Jul 2017</c:v>
+                </c:pt>
+                <c:pt idx="197">
+                  <c:v>22 Jul 2017</c:v>
+                </c:pt>
+                <c:pt idx="198">
+                  <c:v>23 Jul 2017</c:v>
+                </c:pt>
+                <c:pt idx="199">
+                  <c:v>24 Jul 2017</c:v>
+                </c:pt>
+                <c:pt idx="200">
+                  <c:v>25 Jul 2017</c:v>
+                </c:pt>
+                <c:pt idx="201">
+                  <c:v>26 Jul 2017</c:v>
+                </c:pt>
+                <c:pt idx="202">
+                  <c:v>27 Jul 2017</c:v>
+                </c:pt>
+                <c:pt idx="203">
+                  <c:v>28 Jul 2017</c:v>
+                </c:pt>
+                <c:pt idx="204">
+                  <c:v>29 Jul 2017</c:v>
+                </c:pt>
+                <c:pt idx="205">
+                  <c:v>30 Jul 2017</c:v>
+                </c:pt>
+                <c:pt idx="206">
+                  <c:v>31 Jul 2017</c:v>
+                </c:pt>
+                <c:pt idx="207">
+                  <c:v>01 Aug 2017</c:v>
+                </c:pt>
+                <c:pt idx="208">
+                  <c:v>02 Aug 2017</c:v>
+                </c:pt>
+                <c:pt idx="209">
+                  <c:v>03 Aug 2017</c:v>
+                </c:pt>
+                <c:pt idx="210">
+                  <c:v>04 Aug 2017</c:v>
+                </c:pt>
+                <c:pt idx="211">
+                  <c:v>05 Aug 2017</c:v>
+                </c:pt>
+                <c:pt idx="212">
+                  <c:v>06 Aug 2017</c:v>
+                </c:pt>
+                <c:pt idx="213">
+                  <c:v>07 Aug 2017</c:v>
+                </c:pt>
+                <c:pt idx="214">
+                  <c:v>08 Aug 2017</c:v>
+                </c:pt>
+                <c:pt idx="215">
+                  <c:v>09 Aug 2017</c:v>
+                </c:pt>
+                <c:pt idx="216">
+                  <c:v>10 Aug 2017</c:v>
+                </c:pt>
+                <c:pt idx="217">
+                  <c:v>11 Aug 2017</c:v>
+                </c:pt>
+                <c:pt idx="218">
+                  <c:v>12 Aug 2017</c:v>
+                </c:pt>
+                <c:pt idx="219">
+                  <c:v>13 Aug 2017</c:v>
+                </c:pt>
+                <c:pt idx="220">
+                  <c:v>14 Aug 2017</c:v>
+                </c:pt>
+                <c:pt idx="221">
+                  <c:v>15 Aug 2017</c:v>
+                </c:pt>
+                <c:pt idx="222">
+                  <c:v>16 Aug 2017</c:v>
+                </c:pt>
+                <c:pt idx="223">
+                  <c:v>17 Aug 2017</c:v>
+                </c:pt>
+                <c:pt idx="224">
+                  <c:v>18 Aug 2017</c:v>
+                </c:pt>
+                <c:pt idx="225">
+                  <c:v>19 Aug 2017</c:v>
+                </c:pt>
+                <c:pt idx="226">
+                  <c:v>20 Aug 2017</c:v>
+                </c:pt>
+                <c:pt idx="227">
+                  <c:v>21 Aug 2017</c:v>
+                </c:pt>
+                <c:pt idx="228">
+                  <c:v>22 Aug 2017</c:v>
+                </c:pt>
+                <c:pt idx="229">
+                  <c:v>23 Aug 2017</c:v>
+                </c:pt>
+                <c:pt idx="230">
+                  <c:v>24 Aug 2017</c:v>
+                </c:pt>
+                <c:pt idx="231">
+                  <c:v>25 Aug 2017</c:v>
+                </c:pt>
+                <c:pt idx="232">
+                  <c:v>26 Aug 2017</c:v>
+                </c:pt>
+                <c:pt idx="233">
+                  <c:v>27 Aug 2017</c:v>
+                </c:pt>
+                <c:pt idx="234">
+                  <c:v>28 Aug 2017</c:v>
+                </c:pt>
+                <c:pt idx="235">
+                  <c:v>29 Aug 2017</c:v>
+                </c:pt>
+                <c:pt idx="236">
+                  <c:v>30 Aug 2017</c:v>
+                </c:pt>
+                <c:pt idx="237">
+                  <c:v>31 Aug 2017</c:v>
+                </c:pt>
+                <c:pt idx="238">
+                  <c:v>01 Sep 2017</c:v>
+                </c:pt>
+                <c:pt idx="239">
+                  <c:v>02 Sep 2017</c:v>
+                </c:pt>
+                <c:pt idx="240">
+                  <c:v>03 Sep 2017</c:v>
+                </c:pt>
+                <c:pt idx="241">
+                  <c:v>05 Sep 2017</c:v>
+                </c:pt>
+                <c:pt idx="242">
+                  <c:v>06 Sep 2017</c:v>
+                </c:pt>
+                <c:pt idx="243">
+                  <c:v>07 Sep 2017</c:v>
+                </c:pt>
+                <c:pt idx="244">
+                  <c:v>08 Sep 2017</c:v>
+                </c:pt>
+                <c:pt idx="245">
+                  <c:v>09 Sep 2017</c:v>
+                </c:pt>
+                <c:pt idx="246">
+                  <c:v>10 Sep 2017</c:v>
+                </c:pt>
+                <c:pt idx="247">
+                  <c:v>11 Sep 2017</c:v>
+                </c:pt>
+                <c:pt idx="248">
+                  <c:v>12 Sep 2017</c:v>
+                </c:pt>
+                <c:pt idx="249">
+                  <c:v>13 Sep 2017</c:v>
+                </c:pt>
+                <c:pt idx="250">
+                  <c:v>14 Sep 2017</c:v>
+                </c:pt>
+                <c:pt idx="251">
+                  <c:v>15 Sep 2017</c:v>
+                </c:pt>
+                <c:pt idx="252">
+                  <c:v>16 Sep 2017</c:v>
+                </c:pt>
+                <c:pt idx="253">
+                  <c:v>17 Sep 2017</c:v>
+                </c:pt>
+                <c:pt idx="254">
+                  <c:v>18 Sep 2017</c:v>
+                </c:pt>
+                <c:pt idx="255">
+                  <c:v>19 Sep 2017</c:v>
+                </c:pt>
+                <c:pt idx="256">
+                  <c:v>20 Sep 2017</c:v>
+                </c:pt>
+                <c:pt idx="257">
+                  <c:v>21 Sep 2017</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Ridership!$C$2:$C$153</c:f>
+              <c:f>Ridership!$C$2:$C$259</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="152"/>
+                <c:ptCount val="258"/>
                 <c:pt idx="0">
-                  <c:v>100</c:v>
+                  <c:v>91</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>156</c:v>
+                  <c:v>158</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>209</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>247</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>266</c:v>
                 </c:pt>
-                <c:pt idx="3">
-                  <c:v>248</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>304</c:v>
-                </c:pt>
                 <c:pt idx="5">
-                  <c:v>133</c:v>
+                  <c:v>136</c:v>
                 </c:pt>
                 <c:pt idx="6">
+                  <c:v>86</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>265</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>222</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>218</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>241</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>289</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>108</c:v>
+                </c:pt>
+                <c:pt idx="13">
                   <c:v>85</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="14">
+                  <c:v>238</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>177</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>275</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>246</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>176</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>125</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>211</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>176</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>204</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>220</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>236</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>111</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>131</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>286</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>241</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>196</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>257</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>107</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>175</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>131</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>260</c:v>
+                </c:pt>
+                <c:pt idx="37">
                   <c:v>271</c:v>
                 </c:pt>
-                <c:pt idx="8">
-                  <c:v>229</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>243</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>209</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>283</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>98</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>83</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>248</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>202</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>296</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>230</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>174</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>126</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>209</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>208</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>222</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>221</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>253</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>113</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>133</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>262</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>208</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>204</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>200</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>259</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>105</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>42</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>174</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>128</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>222</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>238</c:v>
-                </c:pt>
                 <c:pt idx="38">
-                  <c:v>219</c:v>
+                  <c:v>232</c:v>
                 </c:pt>
                 <c:pt idx="39">
                   <c:v>95</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>125</c:v>
+                  <c:v>127</c:v>
                 </c:pt>
                 <c:pt idx="41">
+                  <c:v>208</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>242</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>264</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>282</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>246</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>143</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>96</c:v>
+                </c:pt>
+                <c:pt idx="48">
                   <c:v>219</c:v>
                 </c:pt>
-                <c:pt idx="42">
-                  <c:v>246</c:v>
-                </c:pt>
-                <c:pt idx="43">
+                <c:pt idx="49">
+                  <c:v>288</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>241</c:v>
+                </c:pt>
+                <c:pt idx="51">
                   <c:v>258</c:v>
                 </c:pt>
-                <c:pt idx="44">
-                  <c:v>258</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>253</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>144</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>99</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>200</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>245</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>246</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>267</c:v>
-                </c:pt>
                 <c:pt idx="52">
-                  <c:v>103</c:v>
+                  <c:v>98</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>92</c:v>
+                  <c:v>93</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>229</c:v>
+                  <c:v>242</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>259</c:v>
+                  <c:v>238</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>218</c:v>
+                  <c:v>244</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>203</c:v>
+                  <c:v>219</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>258</c:v>
+                  <c:v>241</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>97</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>59</c:v>
+                  <c:v>61</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>242</c:v>
+                  <c:v>212</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>181</c:v>
+                  <c:v>216</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>315</c:v>
+                  <c:v>239</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>175</c:v>
+                  <c:v>238</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>260</c:v>
+                  <c:v>219</c:v>
                 </c:pt>
                 <c:pt idx="66">
                   <c:v>102</c:v>
                 </c:pt>
                 <c:pt idx="67">
+                  <c:v>71</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>267</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>243</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>206</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>415</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>213</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>114</c:v>
+                </c:pt>
+                <c:pt idx="74">
                   <c:v>74</c:v>
                 </c:pt>
-                <c:pt idx="68">
+                <c:pt idx="75">
+                  <c:v>277</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>219</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>215</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>204</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>305</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>69</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>99</c:v>
+                </c:pt>
+                <c:pt idx="83">
                   <c:v>185</c:v>
                 </c:pt>
-                <c:pt idx="69">
-                  <c:v>234</c:v>
-                </c:pt>
-                <c:pt idx="70">
-                  <c:v>202</c:v>
-                </c:pt>
-                <c:pt idx="71">
-                  <c:v>413</c:v>
-                </c:pt>
-                <c:pt idx="72">
-                  <c:v>160</c:v>
-                </c:pt>
-                <c:pt idx="73">
-                  <c:v>119</c:v>
-                </c:pt>
-                <c:pt idx="74">
+                <c:pt idx="84">
+                  <c:v>221</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>264</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>260</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>78</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>74</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>193</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>205</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>233</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>239</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>270</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>95</c:v>
+                </c:pt>
+                <c:pt idx="95">
                   <c:v>69</c:v>
                 </c:pt>
-                <c:pt idx="75">
-                  <c:v>259</c:v>
-                </c:pt>
-                <c:pt idx="76">
-                  <c:v>237</c:v>
-                </c:pt>
-                <c:pt idx="77">
-                  <c:v>200</c:v>
-                </c:pt>
-                <c:pt idx="78">
-                  <c:v>229</c:v>
-                </c:pt>
-                <c:pt idx="79">
-                  <c:v>280</c:v>
-                </c:pt>
-                <c:pt idx="80">
-                  <c:v>89</c:v>
-                </c:pt>
-                <c:pt idx="81">
-                  <c:v>68</c:v>
-                </c:pt>
-                <c:pt idx="82">
-                  <c:v>104</c:v>
-                </c:pt>
-                <c:pt idx="83">
-                  <c:v>205</c:v>
-                </c:pt>
-                <c:pt idx="84">
-                  <c:v>239</c:v>
-                </c:pt>
-                <c:pt idx="85">
-                  <c:v>243</c:v>
-                </c:pt>
-                <c:pt idx="86">
-                  <c:v>230</c:v>
-                </c:pt>
-                <c:pt idx="87">
-                  <c:v>81</c:v>
-                </c:pt>
-                <c:pt idx="88">
-                  <c:v>71</c:v>
-                </c:pt>
-                <c:pt idx="89">
-                  <c:v>212</c:v>
-                </c:pt>
-                <c:pt idx="90">
-                  <c:v>217</c:v>
-                </c:pt>
-                <c:pt idx="91">
-                  <c:v>242</c:v>
-                </c:pt>
-                <c:pt idx="92">
-                  <c:v>230</c:v>
-                </c:pt>
-                <c:pt idx="93">
-                  <c:v>193</c:v>
-                </c:pt>
-                <c:pt idx="94">
-                  <c:v>97</c:v>
-                </c:pt>
-                <c:pt idx="95">
-                  <c:v>70</c:v>
-                </c:pt>
                 <c:pt idx="96">
-                  <c:v>250</c:v>
+                  <c:v>235</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>182</c:v>
+                  <c:v>186</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>175</c:v>
+                  <c:v>207</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>261</c:v>
+                  <c:v>283</c:v>
                 </c:pt>
                 <c:pt idx="100">
-                  <c:v>303</c:v>
+                  <c:v>245</c:v>
                 </c:pt>
                 <c:pt idx="101">
-                  <c:v>140</c:v>
+                  <c:v>144</c:v>
                 </c:pt>
                 <c:pt idx="102">
-                  <c:v>83</c:v>
+                  <c:v>85</c:v>
                 </c:pt>
                 <c:pt idx="103">
-                  <c:v>291</c:v>
+                  <c:v>288</c:v>
                 </c:pt>
                 <c:pt idx="104">
-                  <c:v>270</c:v>
+                  <c:v>352</c:v>
                 </c:pt>
                 <c:pt idx="105">
-                  <c:v>195</c:v>
+                  <c:v>190</c:v>
                 </c:pt>
                 <c:pt idx="106">
-                  <c:v>238</c:v>
+                  <c:v>207</c:v>
                 </c:pt>
                 <c:pt idx="107">
-                  <c:v>300</c:v>
+                  <c:v>227</c:v>
                 </c:pt>
                 <c:pt idx="108">
-                  <c:v>101</c:v>
+                  <c:v>111</c:v>
                 </c:pt>
                 <c:pt idx="109">
-                  <c:v>76</c:v>
+                  <c:v>86</c:v>
                 </c:pt>
                 <c:pt idx="110">
-                  <c:v>256</c:v>
+                  <c:v>197</c:v>
                 </c:pt>
                 <c:pt idx="111">
                   <c:v>275</c:v>
                 </c:pt>
                 <c:pt idx="112">
-                  <c:v>264</c:v>
+                  <c:v>206</c:v>
                 </c:pt>
                 <c:pt idx="113">
-                  <c:v>251</c:v>
+                  <c:v>160</c:v>
                 </c:pt>
                 <c:pt idx="114">
-                  <c:v>218</c:v>
+                  <c:v>229</c:v>
                 </c:pt>
                 <c:pt idx="115">
                   <c:v>87</c:v>
                 </c:pt>
                 <c:pt idx="116">
-                  <c:v>91</c:v>
+                  <c:v>80</c:v>
                 </c:pt>
                 <c:pt idx="117">
+                  <c:v>244</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>269</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>269</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>232</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>84</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>187</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>244</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>207</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>218</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>191</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>93</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>105</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>249</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>183</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>243</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>244</c:v>
+                </c:pt>
+                <c:pt idx="135">
                   <c:v>221</c:v>
                 </c:pt>
-                <c:pt idx="118">
-                  <c:v>203</c:v>
-                </c:pt>
-                <c:pt idx="119">
-                  <c:v>289</c:v>
-                </c:pt>
-                <c:pt idx="120">
-                  <c:v>188</c:v>
-                </c:pt>
-                <c:pt idx="121">
-                  <c:v>247</c:v>
-                </c:pt>
-                <c:pt idx="122">
-                  <c:v>88</c:v>
-                </c:pt>
-                <c:pt idx="123">
-                  <c:v>56</c:v>
-                </c:pt>
-                <c:pt idx="124">
-                  <c:v>252</c:v>
-                </c:pt>
-                <c:pt idx="125">
-                  <c:v>210</c:v>
-                </c:pt>
-                <c:pt idx="126">
-                  <c:v>255</c:v>
-                </c:pt>
-                <c:pt idx="127">
-                  <c:v>248</c:v>
-                </c:pt>
-                <c:pt idx="128">
-                  <c:v>192</c:v>
-                </c:pt>
-                <c:pt idx="129">
-                  <c:v>101</c:v>
-                </c:pt>
-                <c:pt idx="130">
-                  <c:v>104</c:v>
-                </c:pt>
-                <c:pt idx="131">
-                  <c:v>233</c:v>
-                </c:pt>
-                <c:pt idx="132">
-                  <c:v>208</c:v>
-                </c:pt>
-                <c:pt idx="133">
+                <c:pt idx="136">
+                  <c:v>154</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>72</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>201</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>195</c:v>
+                </c:pt>
+                <c:pt idx="140">
                   <c:v>262</c:v>
                 </c:pt>
-                <c:pt idx="134">
-                  <c:v>263</c:v>
-                </c:pt>
-                <c:pt idx="135">
-                  <c:v>208</c:v>
-                </c:pt>
-                <c:pt idx="136">
-                  <c:v>136</c:v>
-                </c:pt>
-                <c:pt idx="137">
-                  <c:v>67</c:v>
-                </c:pt>
-                <c:pt idx="138">
-                  <c:v>193</c:v>
-                </c:pt>
-                <c:pt idx="139">
-                  <c:v>185</c:v>
-                </c:pt>
-                <c:pt idx="140">
-                  <c:v>273</c:v>
-                </c:pt>
                 <c:pt idx="141">
-                  <c:v>203</c:v>
+                  <c:v>234</c:v>
                 </c:pt>
                 <c:pt idx="142">
-                  <c:v>237</c:v>
+                  <c:v>228</c:v>
                 </c:pt>
                 <c:pt idx="143">
-                  <c:v>142</c:v>
+                  <c:v>150</c:v>
                 </c:pt>
                 <c:pt idx="144">
-                  <c:v>101</c:v>
+                  <c:v>107</c:v>
                 </c:pt>
                 <c:pt idx="145">
                   <c:v>212</c:v>
                 </c:pt>
                 <c:pt idx="146">
-                  <c:v>192</c:v>
+                  <c:v>178</c:v>
                 </c:pt>
                 <c:pt idx="147">
+                  <c:v>233</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>216</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="150">
+                  <c:v>68</c:v>
+                </c:pt>
+                <c:pt idx="151">
                   <c:v>206</c:v>
                 </c:pt>
-                <c:pt idx="148">
+                <c:pt idx="152">
+                  <c:v>234</c:v>
+                </c:pt>
+                <c:pt idx="153">
+                  <c:v>241</c:v>
+                </c:pt>
+                <c:pt idx="154">
+                  <c:v>240</c:v>
+                </c:pt>
+                <c:pt idx="155">
+                  <c:v>257</c:v>
+                </c:pt>
+                <c:pt idx="156">
+                  <c:v>133</c:v>
+                </c:pt>
+                <c:pt idx="157">
+                  <c:v>94</c:v>
+                </c:pt>
+                <c:pt idx="158">
+                  <c:v>306</c:v>
+                </c:pt>
+                <c:pt idx="159">
+                  <c:v>251</c:v>
+                </c:pt>
+                <c:pt idx="160">
+                  <c:v>280</c:v>
+                </c:pt>
+                <c:pt idx="161">
+                  <c:v>238</c:v>
+                </c:pt>
+                <c:pt idx="162">
+                  <c:v>256</c:v>
+                </c:pt>
+                <c:pt idx="163">
+                  <c:v>101</c:v>
+                </c:pt>
+                <c:pt idx="164">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="165">
+                  <c:v>198</c:v>
+                </c:pt>
+                <c:pt idx="166">
+                  <c:v>167</c:v>
+                </c:pt>
+                <c:pt idx="167">
+                  <c:v>265</c:v>
+                </c:pt>
+                <c:pt idx="168">
+                  <c:v>221</c:v>
+                </c:pt>
+                <c:pt idx="169">
+                  <c:v>220</c:v>
+                </c:pt>
+                <c:pt idx="170">
+                  <c:v>175</c:v>
+                </c:pt>
+                <c:pt idx="171">
+                  <c:v>97</c:v>
+                </c:pt>
+                <c:pt idx="172">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="173">
+                  <c:v>195</c:v>
+                </c:pt>
+                <c:pt idx="174">
+                  <c:v>276</c:v>
+                </c:pt>
+                <c:pt idx="175">
+                  <c:v>298</c:v>
+                </c:pt>
+                <c:pt idx="176">
+                  <c:v>272</c:v>
+                </c:pt>
+                <c:pt idx="177">
+                  <c:v>167</c:v>
+                </c:pt>
+                <c:pt idx="178">
+                  <c:v>104</c:v>
+                </c:pt>
+                <c:pt idx="179">
+                  <c:v>240</c:v>
+                </c:pt>
+                <c:pt idx="180">
+                  <c:v>238</c:v>
+                </c:pt>
+                <c:pt idx="181">
+                  <c:v>267</c:v>
+                </c:pt>
+                <c:pt idx="182">
+                  <c:v>259</c:v>
+                </c:pt>
+                <c:pt idx="183">
+                  <c:v>143</c:v>
+                </c:pt>
+                <c:pt idx="184">
+                  <c:v>106</c:v>
+                </c:pt>
+                <c:pt idx="185">
+                  <c:v>282</c:v>
+                </c:pt>
+                <c:pt idx="186">
+                  <c:v>261</c:v>
+                </c:pt>
+                <c:pt idx="187">
+                  <c:v>358</c:v>
+                </c:pt>
+                <c:pt idx="188">
+                  <c:v>208</c:v>
+                </c:pt>
+                <c:pt idx="189">
+                  <c:v>218</c:v>
+                </c:pt>
+                <c:pt idx="190">
+                  <c:v>119</c:v>
+                </c:pt>
+                <c:pt idx="191">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="192">
+                  <c:v>250</c:v>
+                </c:pt>
+                <c:pt idx="193">
+                  <c:v>232</c:v>
+                </c:pt>
+                <c:pt idx="194">
+                  <c:v>342</c:v>
+                </c:pt>
+                <c:pt idx="195">
+                  <c:v>237</c:v>
+                </c:pt>
+                <c:pt idx="196">
+                  <c:v>196</c:v>
+                </c:pt>
+                <c:pt idx="197">
+                  <c:v>184</c:v>
+                </c:pt>
+                <c:pt idx="198">
+                  <c:v>127</c:v>
+                </c:pt>
+                <c:pt idx="199">
+                  <c:v>330</c:v>
+                </c:pt>
+                <c:pt idx="200">
+                  <c:v>229</c:v>
+                </c:pt>
+                <c:pt idx="201">
+                  <c:v>278</c:v>
+                </c:pt>
+                <c:pt idx="202">
+                  <c:v>278</c:v>
+                </c:pt>
+                <c:pt idx="203">
+                  <c:v>387</c:v>
+                </c:pt>
+                <c:pt idx="204">
+                  <c:v>183</c:v>
+                </c:pt>
+                <c:pt idx="205">
+                  <c:v>139</c:v>
+                </c:pt>
+                <c:pt idx="206">
+                  <c:v>286</c:v>
+                </c:pt>
+                <c:pt idx="207">
+                  <c:v>387</c:v>
+                </c:pt>
+                <c:pt idx="208">
+                  <c:v>361</c:v>
+                </c:pt>
+                <c:pt idx="209">
+                  <c:v>333</c:v>
+                </c:pt>
+                <c:pt idx="210">
+                  <c:v>385</c:v>
+                </c:pt>
+                <c:pt idx="211">
+                  <c:v>134</c:v>
+                </c:pt>
+                <c:pt idx="212">
+                  <c:v>138</c:v>
+                </c:pt>
+                <c:pt idx="213">
+                  <c:v>303</c:v>
+                </c:pt>
+                <c:pt idx="214">
+                  <c:v>247</c:v>
+                </c:pt>
+                <c:pt idx="215">
+                  <c:v>316</c:v>
+                </c:pt>
+                <c:pt idx="216">
+                  <c:v>377</c:v>
+                </c:pt>
+                <c:pt idx="217">
+                  <c:v>337</c:v>
+                </c:pt>
+                <c:pt idx="218">
+                  <c:v>92</c:v>
+                </c:pt>
+                <c:pt idx="219">
+                  <c:v>95</c:v>
+                </c:pt>
+                <c:pt idx="220">
+                  <c:v>290</c:v>
+                </c:pt>
+                <c:pt idx="221">
+                  <c:v>269</c:v>
+                </c:pt>
+                <c:pt idx="222">
+                  <c:v>268</c:v>
+                </c:pt>
+                <c:pt idx="223">
+                  <c:v>253</c:v>
+                </c:pt>
+                <c:pt idx="224">
+                  <c:v>251</c:v>
+                </c:pt>
+                <c:pt idx="225">
+                  <c:v>127</c:v>
+                </c:pt>
+                <c:pt idx="226">
+                  <c:v>96</c:v>
+                </c:pt>
+                <c:pt idx="227">
+                  <c:v>295</c:v>
+                </c:pt>
+                <c:pt idx="228">
+                  <c:v>235</c:v>
+                </c:pt>
+                <c:pt idx="229">
+                  <c:v>262</c:v>
+                </c:pt>
+                <c:pt idx="230">
+                  <c:v>325</c:v>
+                </c:pt>
+                <c:pt idx="231">
+                  <c:v>278</c:v>
+                </c:pt>
+                <c:pt idx="232">
+                  <c:v>118</c:v>
+                </c:pt>
+                <c:pt idx="233">
+                  <c:v>93</c:v>
+                </c:pt>
+                <c:pt idx="234">
+                  <c:v>293</c:v>
+                </c:pt>
+                <c:pt idx="235">
+                  <c:v>215</c:v>
+                </c:pt>
+                <c:pt idx="236">
+                  <c:v>198</c:v>
+                </c:pt>
+                <c:pt idx="237">
+                  <c:v>218</c:v>
+                </c:pt>
+                <c:pt idx="238">
+                  <c:v>234</c:v>
+                </c:pt>
+                <c:pt idx="239">
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="240">
+                  <c:v>67</c:v>
+                </c:pt>
+                <c:pt idx="241">
+                  <c:v>250</c:v>
+                </c:pt>
+                <c:pt idx="242">
+                  <c:v>199</c:v>
+                </c:pt>
+                <c:pt idx="243">
+                  <c:v>220</c:v>
+                </c:pt>
+                <c:pt idx="244">
+                  <c:v>259</c:v>
+                </c:pt>
+                <c:pt idx="245">
+                  <c:v>71</c:v>
+                </c:pt>
+                <c:pt idx="246">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="247">
+                  <c:v>183</c:v>
+                </c:pt>
+                <c:pt idx="248">
+                  <c:v>191</c:v>
+                </c:pt>
+                <c:pt idx="249">
+                  <c:v>261</c:v>
+                </c:pt>
+                <c:pt idx="250">
                   <c:v>207</c:v>
                 </c:pt>
-                <c:pt idx="149">
-                  <c:v>122</c:v>
-                </c:pt>
-                <c:pt idx="150">
-                  <c:v>67</c:v>
-                </c:pt>
-                <c:pt idx="151">
-                  <c:v>72</c:v>
+                <c:pt idx="251">
+                  <c:v>256</c:v>
+                </c:pt>
+                <c:pt idx="252">
+                  <c:v>105</c:v>
+                </c:pt>
+                <c:pt idx="253">
+                  <c:v>115</c:v>
+                </c:pt>
+                <c:pt idx="254">
+                  <c:v>187</c:v>
+                </c:pt>
+                <c:pt idx="255">
+                  <c:v>226</c:v>
+                </c:pt>
+                <c:pt idx="256">
+                  <c:v>197</c:v>
+                </c:pt>
+                <c:pt idx="257">
+                  <c:v>132</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1542,9 +2496,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Ridership!$B$2:$B$153</c:f>
+              <c:f>Ridership!$B$2:$B$259</c:f>
               <c:strCache>
-                <c:ptCount val="152"/>
+                <c:ptCount val="258"/>
                 <c:pt idx="0">
                   <c:v>02 Jan 2017</c:v>
                 </c:pt>
@@ -2000,471 +2954,1107 @@
                 </c:pt>
                 <c:pt idx="151">
                   <c:v>05 Jun 2017</c:v>
+                </c:pt>
+                <c:pt idx="152">
+                  <c:v>06 Jun 2017</c:v>
+                </c:pt>
+                <c:pt idx="153">
+                  <c:v>07 Jun 2017</c:v>
+                </c:pt>
+                <c:pt idx="154">
+                  <c:v>08 Jun 2017</c:v>
+                </c:pt>
+                <c:pt idx="155">
+                  <c:v>09 Jun 2017</c:v>
+                </c:pt>
+                <c:pt idx="156">
+                  <c:v>10 Jun 2017</c:v>
+                </c:pt>
+                <c:pt idx="157">
+                  <c:v>11 Jun 2017</c:v>
+                </c:pt>
+                <c:pt idx="158">
+                  <c:v>12 Jun 2017</c:v>
+                </c:pt>
+                <c:pt idx="159">
+                  <c:v>13 Jun 2017</c:v>
+                </c:pt>
+                <c:pt idx="160">
+                  <c:v>14 Jun 2017</c:v>
+                </c:pt>
+                <c:pt idx="161">
+                  <c:v>15 Jun 2017</c:v>
+                </c:pt>
+                <c:pt idx="162">
+                  <c:v>16 Jun 2017</c:v>
+                </c:pt>
+                <c:pt idx="163">
+                  <c:v>17 Jun 2017</c:v>
+                </c:pt>
+                <c:pt idx="164">
+                  <c:v>18 Jun 2017</c:v>
+                </c:pt>
+                <c:pt idx="165">
+                  <c:v>19 Jun 2017</c:v>
+                </c:pt>
+                <c:pt idx="166">
+                  <c:v>20 Jun 2017</c:v>
+                </c:pt>
+                <c:pt idx="167">
+                  <c:v>21 Jun 2017</c:v>
+                </c:pt>
+                <c:pt idx="168">
+                  <c:v>22 Jun 2017</c:v>
+                </c:pt>
+                <c:pt idx="169">
+                  <c:v>23 Jun 2017</c:v>
+                </c:pt>
+                <c:pt idx="170">
+                  <c:v>24 Jun 2017</c:v>
+                </c:pt>
+                <c:pt idx="171">
+                  <c:v>25 Jun 2017</c:v>
+                </c:pt>
+                <c:pt idx="172">
+                  <c:v>26 Jun 2017</c:v>
+                </c:pt>
+                <c:pt idx="173">
+                  <c:v>27 Jun 2017</c:v>
+                </c:pt>
+                <c:pt idx="174">
+                  <c:v>28 Jun 2017</c:v>
+                </c:pt>
+                <c:pt idx="175">
+                  <c:v>29 Jun 2017</c:v>
+                </c:pt>
+                <c:pt idx="176">
+                  <c:v>30 Jun 2017</c:v>
+                </c:pt>
+                <c:pt idx="177">
+                  <c:v>01 Jul 2017</c:v>
+                </c:pt>
+                <c:pt idx="178">
+                  <c:v>02 Jul 2017</c:v>
+                </c:pt>
+                <c:pt idx="179">
+                  <c:v>03 Jul 2017</c:v>
+                </c:pt>
+                <c:pt idx="180">
+                  <c:v>05 Jul 2017</c:v>
+                </c:pt>
+                <c:pt idx="181">
+                  <c:v>06 Jul 2017</c:v>
+                </c:pt>
+                <c:pt idx="182">
+                  <c:v>07 Jul 2017</c:v>
+                </c:pt>
+                <c:pt idx="183">
+                  <c:v>08 Jul 2017</c:v>
+                </c:pt>
+                <c:pt idx="184">
+                  <c:v>09 Jul 2017</c:v>
+                </c:pt>
+                <c:pt idx="185">
+                  <c:v>10 Jul 2017</c:v>
+                </c:pt>
+                <c:pt idx="186">
+                  <c:v>11 Jul 2017</c:v>
+                </c:pt>
+                <c:pt idx="187">
+                  <c:v>12 Jul 2017</c:v>
+                </c:pt>
+                <c:pt idx="188">
+                  <c:v>13 Jul 2017</c:v>
+                </c:pt>
+                <c:pt idx="189">
+                  <c:v>14 Jul 2017</c:v>
+                </c:pt>
+                <c:pt idx="190">
+                  <c:v>15 Jul 2017</c:v>
+                </c:pt>
+                <c:pt idx="191">
+                  <c:v>16 Jul 2017</c:v>
+                </c:pt>
+                <c:pt idx="192">
+                  <c:v>17 Jul 2017</c:v>
+                </c:pt>
+                <c:pt idx="193">
+                  <c:v>18 Jul 2017</c:v>
+                </c:pt>
+                <c:pt idx="194">
+                  <c:v>19 Jul 2017</c:v>
+                </c:pt>
+                <c:pt idx="195">
+                  <c:v>20 Jul 2017</c:v>
+                </c:pt>
+                <c:pt idx="196">
+                  <c:v>21 Jul 2017</c:v>
+                </c:pt>
+                <c:pt idx="197">
+                  <c:v>22 Jul 2017</c:v>
+                </c:pt>
+                <c:pt idx="198">
+                  <c:v>23 Jul 2017</c:v>
+                </c:pt>
+                <c:pt idx="199">
+                  <c:v>24 Jul 2017</c:v>
+                </c:pt>
+                <c:pt idx="200">
+                  <c:v>25 Jul 2017</c:v>
+                </c:pt>
+                <c:pt idx="201">
+                  <c:v>26 Jul 2017</c:v>
+                </c:pt>
+                <c:pt idx="202">
+                  <c:v>27 Jul 2017</c:v>
+                </c:pt>
+                <c:pt idx="203">
+                  <c:v>28 Jul 2017</c:v>
+                </c:pt>
+                <c:pt idx="204">
+                  <c:v>29 Jul 2017</c:v>
+                </c:pt>
+                <c:pt idx="205">
+                  <c:v>30 Jul 2017</c:v>
+                </c:pt>
+                <c:pt idx="206">
+                  <c:v>31 Jul 2017</c:v>
+                </c:pt>
+                <c:pt idx="207">
+                  <c:v>01 Aug 2017</c:v>
+                </c:pt>
+                <c:pt idx="208">
+                  <c:v>02 Aug 2017</c:v>
+                </c:pt>
+                <c:pt idx="209">
+                  <c:v>03 Aug 2017</c:v>
+                </c:pt>
+                <c:pt idx="210">
+                  <c:v>04 Aug 2017</c:v>
+                </c:pt>
+                <c:pt idx="211">
+                  <c:v>05 Aug 2017</c:v>
+                </c:pt>
+                <c:pt idx="212">
+                  <c:v>06 Aug 2017</c:v>
+                </c:pt>
+                <c:pt idx="213">
+                  <c:v>07 Aug 2017</c:v>
+                </c:pt>
+                <c:pt idx="214">
+                  <c:v>08 Aug 2017</c:v>
+                </c:pt>
+                <c:pt idx="215">
+                  <c:v>09 Aug 2017</c:v>
+                </c:pt>
+                <c:pt idx="216">
+                  <c:v>10 Aug 2017</c:v>
+                </c:pt>
+                <c:pt idx="217">
+                  <c:v>11 Aug 2017</c:v>
+                </c:pt>
+                <c:pt idx="218">
+                  <c:v>12 Aug 2017</c:v>
+                </c:pt>
+                <c:pt idx="219">
+                  <c:v>13 Aug 2017</c:v>
+                </c:pt>
+                <c:pt idx="220">
+                  <c:v>14 Aug 2017</c:v>
+                </c:pt>
+                <c:pt idx="221">
+                  <c:v>15 Aug 2017</c:v>
+                </c:pt>
+                <c:pt idx="222">
+                  <c:v>16 Aug 2017</c:v>
+                </c:pt>
+                <c:pt idx="223">
+                  <c:v>17 Aug 2017</c:v>
+                </c:pt>
+                <c:pt idx="224">
+                  <c:v>18 Aug 2017</c:v>
+                </c:pt>
+                <c:pt idx="225">
+                  <c:v>19 Aug 2017</c:v>
+                </c:pt>
+                <c:pt idx="226">
+                  <c:v>20 Aug 2017</c:v>
+                </c:pt>
+                <c:pt idx="227">
+                  <c:v>21 Aug 2017</c:v>
+                </c:pt>
+                <c:pt idx="228">
+                  <c:v>22 Aug 2017</c:v>
+                </c:pt>
+                <c:pt idx="229">
+                  <c:v>23 Aug 2017</c:v>
+                </c:pt>
+                <c:pt idx="230">
+                  <c:v>24 Aug 2017</c:v>
+                </c:pt>
+                <c:pt idx="231">
+                  <c:v>25 Aug 2017</c:v>
+                </c:pt>
+                <c:pt idx="232">
+                  <c:v>26 Aug 2017</c:v>
+                </c:pt>
+                <c:pt idx="233">
+                  <c:v>27 Aug 2017</c:v>
+                </c:pt>
+                <c:pt idx="234">
+                  <c:v>28 Aug 2017</c:v>
+                </c:pt>
+                <c:pt idx="235">
+                  <c:v>29 Aug 2017</c:v>
+                </c:pt>
+                <c:pt idx="236">
+                  <c:v>30 Aug 2017</c:v>
+                </c:pt>
+                <c:pt idx="237">
+                  <c:v>31 Aug 2017</c:v>
+                </c:pt>
+                <c:pt idx="238">
+                  <c:v>01 Sep 2017</c:v>
+                </c:pt>
+                <c:pt idx="239">
+                  <c:v>02 Sep 2017</c:v>
+                </c:pt>
+                <c:pt idx="240">
+                  <c:v>03 Sep 2017</c:v>
+                </c:pt>
+                <c:pt idx="241">
+                  <c:v>05 Sep 2017</c:v>
+                </c:pt>
+                <c:pt idx="242">
+                  <c:v>06 Sep 2017</c:v>
+                </c:pt>
+                <c:pt idx="243">
+                  <c:v>07 Sep 2017</c:v>
+                </c:pt>
+                <c:pt idx="244">
+                  <c:v>08 Sep 2017</c:v>
+                </c:pt>
+                <c:pt idx="245">
+                  <c:v>09 Sep 2017</c:v>
+                </c:pt>
+                <c:pt idx="246">
+                  <c:v>10 Sep 2017</c:v>
+                </c:pt>
+                <c:pt idx="247">
+                  <c:v>11 Sep 2017</c:v>
+                </c:pt>
+                <c:pt idx="248">
+                  <c:v>12 Sep 2017</c:v>
+                </c:pt>
+                <c:pt idx="249">
+                  <c:v>13 Sep 2017</c:v>
+                </c:pt>
+                <c:pt idx="250">
+                  <c:v>14 Sep 2017</c:v>
+                </c:pt>
+                <c:pt idx="251">
+                  <c:v>15 Sep 2017</c:v>
+                </c:pt>
+                <c:pt idx="252">
+                  <c:v>16 Sep 2017</c:v>
+                </c:pt>
+                <c:pt idx="253">
+                  <c:v>17 Sep 2017</c:v>
+                </c:pt>
+                <c:pt idx="254">
+                  <c:v>18 Sep 2017</c:v>
+                </c:pt>
+                <c:pt idx="255">
+                  <c:v>19 Sep 2017</c:v>
+                </c:pt>
+                <c:pt idx="256">
+                  <c:v>20 Sep 2017</c:v>
+                </c:pt>
+                <c:pt idx="257">
+                  <c:v>21 Sep 2017</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Ridership!$D$2:$D$153</c:f>
+              <c:f>Ridership!$D$2:$D$259</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="152"/>
+                <c:ptCount val="258"/>
                 <c:pt idx="0">
-                  <c:v>224.7</c:v>
+                  <c:v>229.3</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>208</c:v>
+                  <c:v>208.6</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>207</c:v>
+                  <c:v>193.5</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>224</c:v>
+                  <c:v>217.78</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>229.7</c:v>
+                  <c:v>231.3</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>117.45</c:v>
+                  <c:v>118.27</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>105.22</c:v>
+                  <c:v>103.33</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>228.91</c:v>
+                  <c:v>232.55</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>209.91</c:v>
+                  <c:v>209.82</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>210.27</c:v>
+                  <c:v>195.73</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>222.5</c:v>
+                  <c:v>220.1</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>234.55</c:v>
+                  <c:v>236.55</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>115.83</c:v>
+                  <c:v>117.42</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>103</c:v>
+                  <c:v>101.5</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>213.08</c:v>
+                  <c:v>212.17</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>209.58</c:v>
+                  <c:v>194.17</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>229.18</c:v>
+                  <c:v>225.09</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>234.17</c:v>
+                  <c:v>237.33</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>120.31</c:v>
+                  <c:v>121.92</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>105.09</c:v>
+                  <c:v>103.64</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>227.25</c:v>
+                  <c:v>230.75</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>212.69</c:v>
+                  <c:v>209.38</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>210.54</c:v>
+                  <c:v>194.92</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>228.5</c:v>
+                  <c:v>224.67</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>235.62</c:v>
+                  <c:v>237.23</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>119.79</c:v>
+                  <c:v>121.14</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>107.42</c:v>
+                  <c:v>105.92</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>229.92</c:v>
+                  <c:v>235</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>212.36</c:v>
+                  <c:v>211.64</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>210.07</c:v>
+                  <c:v>195.29</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>226.31</c:v>
+                  <c:v>222.46</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>237.29</c:v>
+                  <c:v>238.64</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>118.8</c:v>
+                  <c:v>120.2</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>102.38</c:v>
+                  <c:v>101.08</c:v>
                 </c:pt>
                 <c:pt idx="34">
+                  <c:v>230.71</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>206.27</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>199.6</c:v>
+                </c:pt>
+                <c:pt idx="37">
                   <c:v>225.93</c:v>
                 </c:pt>
-                <c:pt idx="35">
-                  <c:v>206.73</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>210.87</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>227.14</c:v>
-                </c:pt>
                 <c:pt idx="38">
-                  <c:v>236.07</c:v>
+                  <c:v>238.2</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>117.31</c:v>
+                  <c:v>118.62</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>104</c:v>
+                  <c:v>102.93</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>225.47</c:v>
+                  <c:v>229.2</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>209.19</c:v>
+                  <c:v>208.5</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>213.81</c:v>
+                  <c:v>203.62</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>229.2</c:v>
+                  <c:v>229.67</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>237.12</c:v>
+                  <c:v>238.69</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>118.88</c:v>
+                  <c:v>120.06</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>103.67</c:v>
+                  <c:v>102.47</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>208.65</c:v>
+                  <c:v>209.12</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>215.65</c:v>
+                  <c:v>208.59</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>230.25</c:v>
+                  <c:v>230.38</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>238.88</c:v>
+                  <c:v>239.82</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>118</c:v>
+                  <c:v>118.83</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>102.94</c:v>
+                  <c:v>101.88</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>225.69</c:v>
+                  <c:v>230</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>211.44</c:v>
+                  <c:v>210.72</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>215.78</c:v>
+                  <c:v>210.56</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>228.65</c:v>
+                  <c:v>229.71</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>239.94</c:v>
+                  <c:v>239.89</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>116.89</c:v>
+                  <c:v>117.84</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>100.35</c:v>
+                  <c:v>99.47</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>226.65</c:v>
+                  <c:v>228.94</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>209.84</c:v>
+                  <c:v>211</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>221</c:v>
+                  <c:v>212.05</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>225.67</c:v>
+                  <c:v>230.17</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>241</c:v>
+                  <c:v>238.79</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>116.15</c:v>
+                  <c:v>117.05</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>98.89</c:v>
+                  <c:v>97.89</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>224.33</c:v>
+                  <c:v>231.06</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>211.05</c:v>
+                  <c:v>212.6</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>220.05</c:v>
+                  <c:v>211.75</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>235.53</c:v>
+                  <c:v>239.89</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>236.95</c:v>
+                  <c:v>237.5</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>116.29</c:v>
+                  <c:v>116.9</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>97.31999999999999</c:v>
+                  <c:v>96.63</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>226.16</c:v>
+                  <c:v>233.47</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>212.29</c:v>
+                  <c:v>212.9</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>219.1</c:v>
+                  <c:v>211.9</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>235.2</c:v>
+                  <c:v>238.1</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>239</c:v>
+                  <c:v>240.71</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>115.05</c:v>
+                  <c:v>115.45</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>95.84999999999999</c:v>
+                  <c:v>95.25</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>220.05</c:v>
+                  <c:v>226.75</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>211.95</c:v>
+                  <c:v>211.64</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>220</c:v>
+                  <c:v>212.32</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>235.57</c:v>
+                  <c:v>239.33</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>238.59</c:v>
+                  <c:v>241.59</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>113.57</c:v>
+                  <c:v>113.83</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>94.67</c:v>
+                  <c:v>94.23999999999999</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>219.67</c:v>
+                  <c:v>225.14</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>212.17</c:v>
+                  <c:v>211.35</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>220.96</c:v>
+                  <c:v>213.22</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>235.32</c:v>
+                  <c:v>239.32</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>236.61</c:v>
+                  <c:v>242.83</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>112.88</c:v>
+                  <c:v>113.04</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>93.55</c:v>
+                  <c:v>93.09</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>221.05</c:v>
+                  <c:v>225.59</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>210.92</c:v>
+                  <c:v>210.29</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>219.04</c:v>
+                  <c:v>212.96</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>236.43</c:v>
+                  <c:v>241.22</c:v>
                 </c:pt>
                 <c:pt idx="100">
-                  <c:v>239.38</c:v>
+                  <c:v>242.92</c:v>
                 </c:pt>
                 <c:pt idx="101">
-                  <c:v>113.96</c:v>
+                  <c:v>114.28</c:v>
                 </c:pt>
                 <c:pt idx="102">
-                  <c:v>93.09</c:v>
+                  <c:v>92.73999999999999</c:v>
                 </c:pt>
                 <c:pt idx="103">
-                  <c:v>224.09</c:v>
+                  <c:v>228.3</c:v>
                 </c:pt>
                 <c:pt idx="104">
-                  <c:v>213.28</c:v>
+                  <c:v>215.96</c:v>
                 </c:pt>
                 <c:pt idx="105">
-                  <c:v>218.08</c:v>
+                  <c:v>212.04</c:v>
                 </c:pt>
                 <c:pt idx="106">
-                  <c:v>236.5</c:v>
+                  <c:v>239.79</c:v>
                 </c:pt>
                 <c:pt idx="107">
-                  <c:v>241.8</c:v>
+                  <c:v>242.28</c:v>
                 </c:pt>
                 <c:pt idx="108">
-                  <c:v>113.46</c:v>
+                  <c:v>114.15</c:v>
                 </c:pt>
                 <c:pt idx="109">
-                  <c:v>92.38</c:v>
+                  <c:v>92.45999999999999</c:v>
                 </c:pt>
                 <c:pt idx="110">
-                  <c:v>225.42</c:v>
+                  <c:v>227</c:v>
                 </c:pt>
                 <c:pt idx="111">
-                  <c:v>215.65</c:v>
+                  <c:v>218.23</c:v>
                 </c:pt>
                 <c:pt idx="112">
-                  <c:v>219.85</c:v>
+                  <c:v>211.81</c:v>
                 </c:pt>
                 <c:pt idx="113">
-                  <c:v>237.08</c:v>
+                  <c:v>236.6</c:v>
                 </c:pt>
                 <c:pt idx="114">
-                  <c:v>240.88</c:v>
+                  <c:v>241.77</c:v>
                 </c:pt>
                 <c:pt idx="115">
-                  <c:v>112.48</c:v>
+                  <c:v>113.15</c:v>
                 </c:pt>
                 <c:pt idx="116">
-                  <c:v>92.31999999999999</c:v>
+                  <c:v>91.95999999999999</c:v>
                 </c:pt>
                 <c:pt idx="117">
-                  <c:v>225.24</c:v>
+                  <c:v>227.68</c:v>
                 </c:pt>
                 <c:pt idx="118">
-                  <c:v>215.19</c:v>
+                  <c:v>220.11</c:v>
                 </c:pt>
                 <c:pt idx="119">
-                  <c:v>222.41</c:v>
+                  <c:v>213.93</c:v>
                 </c:pt>
                 <c:pt idx="120">
                   <c:v>235.19</c:v>
                 </c:pt>
                 <c:pt idx="121">
-                  <c:v>241.11</c:v>
+                  <c:v>241.41</c:v>
                 </c:pt>
                 <c:pt idx="122">
-                  <c:v>111.61</c:v>
+                  <c:v>112.11</c:v>
                 </c:pt>
                 <c:pt idx="123">
-                  <c:v>90.92</c:v>
+                  <c:v>90.65000000000001</c:v>
                 </c:pt>
                 <c:pt idx="124">
-                  <c:v>226.27</c:v>
+                  <c:v>226.12</c:v>
                 </c:pt>
                 <c:pt idx="125">
-                  <c:v>215</c:v>
+                  <c:v>220.96</c:v>
                 </c:pt>
                 <c:pt idx="126">
-                  <c:v>223.57</c:v>
+                  <c:v>213.68</c:v>
                 </c:pt>
                 <c:pt idx="127">
-                  <c:v>235.67</c:v>
+                  <c:v>234.56</c:v>
                 </c:pt>
                 <c:pt idx="128">
-                  <c:v>239.36</c:v>
+                  <c:v>239.61</c:v>
                 </c:pt>
                 <c:pt idx="129">
-                  <c:v>111.24</c:v>
+                  <c:v>111.45</c:v>
                 </c:pt>
                 <c:pt idx="130">
-                  <c:v>91.41</c:v>
+                  <c:v>91.19</c:v>
                 </c:pt>
                 <c:pt idx="131">
-                  <c:v>226.52</c:v>
+                  <c:v>226.96</c:v>
                 </c:pt>
                 <c:pt idx="132">
-                  <c:v>214.76</c:v>
+                  <c:v>219.66</c:v>
                 </c:pt>
                 <c:pt idx="133">
-                  <c:v>224.9</c:v>
+                  <c:v>214.69</c:v>
                 </c:pt>
                 <c:pt idx="134">
-                  <c:v>236.64</c:v>
+                  <c:v>234.89</c:v>
                 </c:pt>
                 <c:pt idx="135">
-                  <c:v>238.28</c:v>
+                  <c:v>238.97</c:v>
                 </c:pt>
                 <c:pt idx="136">
-                  <c:v>112.07</c:v>
+                  <c:v>112.87</c:v>
                 </c:pt>
                 <c:pt idx="137">
-                  <c:v>90.54000000000001</c:v>
+                  <c:v>90.5</c:v>
                 </c:pt>
                 <c:pt idx="138">
-                  <c:v>225.32</c:v>
+                  <c:v>226.04</c:v>
                 </c:pt>
                 <c:pt idx="139">
-                  <c:v>213.77</c:v>
+                  <c:v>218.83</c:v>
                 </c:pt>
                 <c:pt idx="140">
-                  <c:v>226.5</c:v>
+                  <c:v>216.27</c:v>
                 </c:pt>
                 <c:pt idx="141">
-                  <c:v>235.48</c:v>
+                  <c:v>234.86</c:v>
                 </c:pt>
                 <c:pt idx="142">
-                  <c:v>238.23</c:v>
+                  <c:v>238.6</c:v>
                 </c:pt>
                 <c:pt idx="143">
-                  <c:v>113.03</c:v>
+                  <c:v>114.06</c:v>
                 </c:pt>
                 <c:pt idx="144">
-                  <c:v>90.90000000000001</c:v>
+                  <c:v>91.06999999999999</c:v>
                 </c:pt>
                 <c:pt idx="145">
-                  <c:v>213.71</c:v>
+                  <c:v>218.61</c:v>
                 </c:pt>
                 <c:pt idx="146">
-                  <c:v>225.39</c:v>
+                  <c:v>215.03</c:v>
                 </c:pt>
                 <c:pt idx="147">
-                  <c:v>234.5</c:v>
+                  <c:v>234.8</c:v>
                 </c:pt>
                 <c:pt idx="148">
-                  <c:v>237.23</c:v>
+                  <c:v>237.87</c:v>
                 </c:pt>
                 <c:pt idx="149">
-                  <c:v>113.31</c:v>
+                  <c:v>114.25</c:v>
                 </c:pt>
                 <c:pt idx="150">
-                  <c:v>90.09999999999999</c:v>
+                  <c:v>90.3</c:v>
                 </c:pt>
                 <c:pt idx="151">
-                  <c:v>220.03</c:v>
+                  <c:v>225.34</c:v>
+                </c:pt>
+                <c:pt idx="152">
+                  <c:v>219.09</c:v>
+                </c:pt>
+                <c:pt idx="153">
+                  <c:v>215.84</c:v>
+                </c:pt>
+                <c:pt idx="154">
+                  <c:v>234.97</c:v>
+                </c:pt>
+                <c:pt idx="155">
+                  <c:v>238.47</c:v>
+                </c:pt>
+                <c:pt idx="156">
+                  <c:v>114.82</c:v>
+                </c:pt>
+                <c:pt idx="157">
+                  <c:v>90.42</c:v>
+                </c:pt>
+                <c:pt idx="158">
+                  <c:v>228.03</c:v>
+                </c:pt>
+                <c:pt idx="159">
+                  <c:v>220.06</c:v>
+                </c:pt>
+                <c:pt idx="160">
+                  <c:v>217.79</c:v>
+                </c:pt>
+                <c:pt idx="161">
+                  <c:v>235.06</c:v>
+                </c:pt>
+                <c:pt idx="162">
+                  <c:v>239</c:v>
+                </c:pt>
+                <c:pt idx="163">
+                  <c:v>114.41</c:v>
+                </c:pt>
+                <c:pt idx="164">
+                  <c:v>89.94</c:v>
+                </c:pt>
+                <c:pt idx="165">
+                  <c:v>227.06</c:v>
+                </c:pt>
+                <c:pt idx="166">
+                  <c:v>218.5</c:v>
+                </c:pt>
+                <c:pt idx="167">
+                  <c:v>219.18</c:v>
+                </c:pt>
+                <c:pt idx="168">
+                  <c:v>234.64</c:v>
+                </c:pt>
+                <c:pt idx="169">
+                  <c:v>238.44</c:v>
+                </c:pt>
+                <c:pt idx="170">
+                  <c:v>116.14</c:v>
+                </c:pt>
+                <c:pt idx="171">
+                  <c:v>90.15000000000001</c:v>
+                </c:pt>
+                <c:pt idx="172">
+                  <c:v>229.34</c:v>
+                </c:pt>
+                <c:pt idx="173">
+                  <c:v>217.83</c:v>
+                </c:pt>
+                <c:pt idx="174">
+                  <c:v>220.8</c:v>
+                </c:pt>
+                <c:pt idx="175">
+                  <c:v>236.5</c:v>
+                </c:pt>
+                <c:pt idx="176">
+                  <c:v>239.4</c:v>
+                </c:pt>
+                <c:pt idx="177">
+                  <c:v>117.56</c:v>
+                </c:pt>
+                <c:pt idx="178">
+                  <c:v>90.56</c:v>
+                </c:pt>
+                <c:pt idx="179">
+                  <c:v>229.67</c:v>
+                </c:pt>
+                <c:pt idx="180">
+                  <c:v>221.28</c:v>
+                </c:pt>
+                <c:pt idx="181">
+                  <c:v>237.37</c:v>
+                </c:pt>
+                <c:pt idx="182">
+                  <c:v>239.94</c:v>
+                </c:pt>
+                <c:pt idx="183">
+                  <c:v>118.24</c:v>
+                </c:pt>
+                <c:pt idx="184">
+                  <c:v>91</c:v>
+                </c:pt>
+                <c:pt idx="185">
+                  <c:v>231.21</c:v>
+                </c:pt>
+                <c:pt idx="186">
+                  <c:v>219.03</c:v>
+                </c:pt>
+                <c:pt idx="187">
+                  <c:v>224.97</c:v>
+                </c:pt>
+                <c:pt idx="188">
+                  <c:v>236.56</c:v>
+                </c:pt>
+                <c:pt idx="189">
+                  <c:v>239.35</c:v>
+                </c:pt>
+                <c:pt idx="190">
+                  <c:v>118.26</c:v>
+                </c:pt>
+                <c:pt idx="191">
+                  <c:v>91.25</c:v>
+                </c:pt>
+                <c:pt idx="192">
+                  <c:v>231.74</c:v>
+                </c:pt>
+                <c:pt idx="193">
+                  <c:v>219.38</c:v>
+                </c:pt>
+                <c:pt idx="194">
+                  <c:v>228.05</c:v>
+                </c:pt>
+                <c:pt idx="195">
+                  <c:v>236.57</c:v>
+                </c:pt>
+                <c:pt idx="196">
+                  <c:v>238.21</c:v>
+                </c:pt>
+                <c:pt idx="197">
+                  <c:v>119.95</c:v>
+                </c:pt>
+                <c:pt idx="198">
+                  <c:v>92.22</c:v>
+                </c:pt>
+                <c:pt idx="199">
+                  <c:v>234.47</c:v>
+                </c:pt>
+                <c:pt idx="200">
+                  <c:v>219.63</c:v>
+                </c:pt>
+                <c:pt idx="201">
+                  <c:v>229.33</c:v>
+                </c:pt>
+                <c:pt idx="202">
+                  <c:v>237.66</c:v>
+                </c:pt>
+                <c:pt idx="203">
+                  <c:v>242.03</c:v>
+                </c:pt>
+                <c:pt idx="204">
+                  <c:v>121.53</c:v>
+                </c:pt>
+                <c:pt idx="205">
+                  <c:v>93.45</c:v>
+                </c:pt>
+                <c:pt idx="206">
+                  <c:v>235.86</c:v>
+                </c:pt>
+                <c:pt idx="207">
+                  <c:v>223.92</c:v>
+                </c:pt>
+                <c:pt idx="208">
+                  <c:v>232.62</c:v>
+                </c:pt>
+                <c:pt idx="209">
+                  <c:v>240.1</c:v>
+                </c:pt>
+                <c:pt idx="210">
+                  <c:v>245.6</c:v>
+                </c:pt>
+                <c:pt idx="211">
+                  <c:v>121.83</c:v>
+                </c:pt>
+                <c:pt idx="212">
+                  <c:v>94.59</c:v>
+                </c:pt>
+                <c:pt idx="213">
+                  <c:v>237.63</c:v>
+                </c:pt>
+                <c:pt idx="214">
+                  <c:v>224.5</c:v>
+                </c:pt>
+                <c:pt idx="215">
+                  <c:v>234.66</c:v>
+                </c:pt>
+                <c:pt idx="216">
+                  <c:v>243.53</c:v>
+                </c:pt>
+                <c:pt idx="217">
+                  <c:v>247.83</c:v>
+                </c:pt>
+                <c:pt idx="218">
+                  <c:v>121.12</c:v>
+                </c:pt>
+                <c:pt idx="219">
+                  <c:v>94.59999999999999</c:v>
+                </c:pt>
+                <c:pt idx="220">
+                  <c:v>238.97</c:v>
+                </c:pt>
+                <c:pt idx="221">
+                  <c:v>225.59</c:v>
+                </c:pt>
+                <c:pt idx="222">
+                  <c:v>235.45</c:v>
+                </c:pt>
+                <c:pt idx="223">
+                  <c:v>243.76</c:v>
+                </c:pt>
+                <c:pt idx="224">
+                  <c:v>247.9</c:v>
+                </c:pt>
+                <c:pt idx="225">
+                  <c:v>121.26</c:v>
+                </c:pt>
+                <c:pt idx="226">
+                  <c:v>94.63</c:v>
+                </c:pt>
+                <c:pt idx="227">
+                  <c:v>240.38</c:v>
+                </c:pt>
+                <c:pt idx="228">
+                  <c:v>225.81</c:v>
+                </c:pt>
+                <c:pt idx="229">
+                  <c:v>236.07</c:v>
+                </c:pt>
+                <c:pt idx="230">
+                  <c:v>245.69</c:v>
+                </c:pt>
+                <c:pt idx="231">
+                  <c:v>248.6</c:v>
+                </c:pt>
+                <c:pt idx="232">
+                  <c:v>121.18</c:v>
+                </c:pt>
+                <c:pt idx="233">
+                  <c:v>94.59999999999999</c:v>
+                </c:pt>
+                <c:pt idx="234">
+                  <c:v>241.66</c:v>
+                </c:pt>
+                <c:pt idx="235">
+                  <c:v>225.56</c:v>
+                </c:pt>
+                <c:pt idx="236">
+                  <c:v>235.2</c:v>
+                </c:pt>
+                <c:pt idx="237">
+                  <c:v>245.05</c:v>
+                </c:pt>
+                <c:pt idx="238">
+                  <c:v>248.27</c:v>
+                </c:pt>
+                <c:pt idx="239">
+                  <c:v>120.38</c:v>
+                </c:pt>
+                <c:pt idx="240">
+                  <c:v>93.95</c:v>
+                </c:pt>
+                <c:pt idx="241">
+                  <c:v>226.11</c:v>
+                </c:pt>
+                <c:pt idx="242">
+                  <c:v>234.4</c:v>
+                </c:pt>
+                <c:pt idx="243">
+                  <c:v>244.48</c:v>
+                </c:pt>
+                <c:pt idx="244">
+                  <c:v>248.51</c:v>
+                </c:pt>
+                <c:pt idx="245">
+                  <c:v>119.3</c:v>
+                </c:pt>
+                <c:pt idx="246">
+                  <c:v>93</c:v>
+                </c:pt>
+                <c:pt idx="247">
+                  <c:v>240.26</c:v>
+                </c:pt>
+                <c:pt idx="248">
+                  <c:v>225.33</c:v>
+                </c:pt>
+                <c:pt idx="249">
+                  <c:v>234.98</c:v>
+                </c:pt>
+                <c:pt idx="250">
+                  <c:v>243.64</c:v>
+                </c:pt>
+                <c:pt idx="251">
+                  <c:v>248.67</c:v>
+                </c:pt>
+                <c:pt idx="252">
+                  <c:v>119</c:v>
+                </c:pt>
+                <c:pt idx="253">
+                  <c:v>93.48999999999999</c:v>
+                </c:pt>
+                <c:pt idx="254">
+                  <c:v>239.02</c:v>
+                </c:pt>
+                <c:pt idx="255">
+                  <c:v>225.35</c:v>
+                </c:pt>
+                <c:pt idx="256">
+                  <c:v>234.17</c:v>
+                </c:pt>
+                <c:pt idx="257">
+                  <c:v>241.22</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2488,9 +4078,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Ridership!$B$2:$B$153</c:f>
+              <c:f>Ridership!$B$2:$B$259</c:f>
               <c:strCache>
-                <c:ptCount val="152"/>
+                <c:ptCount val="258"/>
                 <c:pt idx="0">
                   <c:v>02 Jan 2017</c:v>
                 </c:pt>
@@ -2946,16 +4536,334 @@
                 </c:pt>
                 <c:pt idx="151">
                   <c:v>05 Jun 2017</c:v>
+                </c:pt>
+                <c:pt idx="152">
+                  <c:v>06 Jun 2017</c:v>
+                </c:pt>
+                <c:pt idx="153">
+                  <c:v>07 Jun 2017</c:v>
+                </c:pt>
+                <c:pt idx="154">
+                  <c:v>08 Jun 2017</c:v>
+                </c:pt>
+                <c:pt idx="155">
+                  <c:v>09 Jun 2017</c:v>
+                </c:pt>
+                <c:pt idx="156">
+                  <c:v>10 Jun 2017</c:v>
+                </c:pt>
+                <c:pt idx="157">
+                  <c:v>11 Jun 2017</c:v>
+                </c:pt>
+                <c:pt idx="158">
+                  <c:v>12 Jun 2017</c:v>
+                </c:pt>
+                <c:pt idx="159">
+                  <c:v>13 Jun 2017</c:v>
+                </c:pt>
+                <c:pt idx="160">
+                  <c:v>14 Jun 2017</c:v>
+                </c:pt>
+                <c:pt idx="161">
+                  <c:v>15 Jun 2017</c:v>
+                </c:pt>
+                <c:pt idx="162">
+                  <c:v>16 Jun 2017</c:v>
+                </c:pt>
+                <c:pt idx="163">
+                  <c:v>17 Jun 2017</c:v>
+                </c:pt>
+                <c:pt idx="164">
+                  <c:v>18 Jun 2017</c:v>
+                </c:pt>
+                <c:pt idx="165">
+                  <c:v>19 Jun 2017</c:v>
+                </c:pt>
+                <c:pt idx="166">
+                  <c:v>20 Jun 2017</c:v>
+                </c:pt>
+                <c:pt idx="167">
+                  <c:v>21 Jun 2017</c:v>
+                </c:pt>
+                <c:pt idx="168">
+                  <c:v>22 Jun 2017</c:v>
+                </c:pt>
+                <c:pt idx="169">
+                  <c:v>23 Jun 2017</c:v>
+                </c:pt>
+                <c:pt idx="170">
+                  <c:v>24 Jun 2017</c:v>
+                </c:pt>
+                <c:pt idx="171">
+                  <c:v>25 Jun 2017</c:v>
+                </c:pt>
+                <c:pt idx="172">
+                  <c:v>26 Jun 2017</c:v>
+                </c:pt>
+                <c:pt idx="173">
+                  <c:v>27 Jun 2017</c:v>
+                </c:pt>
+                <c:pt idx="174">
+                  <c:v>28 Jun 2017</c:v>
+                </c:pt>
+                <c:pt idx="175">
+                  <c:v>29 Jun 2017</c:v>
+                </c:pt>
+                <c:pt idx="176">
+                  <c:v>30 Jun 2017</c:v>
+                </c:pt>
+                <c:pt idx="177">
+                  <c:v>01 Jul 2017</c:v>
+                </c:pt>
+                <c:pt idx="178">
+                  <c:v>02 Jul 2017</c:v>
+                </c:pt>
+                <c:pt idx="179">
+                  <c:v>03 Jul 2017</c:v>
+                </c:pt>
+                <c:pt idx="180">
+                  <c:v>05 Jul 2017</c:v>
+                </c:pt>
+                <c:pt idx="181">
+                  <c:v>06 Jul 2017</c:v>
+                </c:pt>
+                <c:pt idx="182">
+                  <c:v>07 Jul 2017</c:v>
+                </c:pt>
+                <c:pt idx="183">
+                  <c:v>08 Jul 2017</c:v>
+                </c:pt>
+                <c:pt idx="184">
+                  <c:v>09 Jul 2017</c:v>
+                </c:pt>
+                <c:pt idx="185">
+                  <c:v>10 Jul 2017</c:v>
+                </c:pt>
+                <c:pt idx="186">
+                  <c:v>11 Jul 2017</c:v>
+                </c:pt>
+                <c:pt idx="187">
+                  <c:v>12 Jul 2017</c:v>
+                </c:pt>
+                <c:pt idx="188">
+                  <c:v>13 Jul 2017</c:v>
+                </c:pt>
+                <c:pt idx="189">
+                  <c:v>14 Jul 2017</c:v>
+                </c:pt>
+                <c:pt idx="190">
+                  <c:v>15 Jul 2017</c:v>
+                </c:pt>
+                <c:pt idx="191">
+                  <c:v>16 Jul 2017</c:v>
+                </c:pt>
+                <c:pt idx="192">
+                  <c:v>17 Jul 2017</c:v>
+                </c:pt>
+                <c:pt idx="193">
+                  <c:v>18 Jul 2017</c:v>
+                </c:pt>
+                <c:pt idx="194">
+                  <c:v>19 Jul 2017</c:v>
+                </c:pt>
+                <c:pt idx="195">
+                  <c:v>20 Jul 2017</c:v>
+                </c:pt>
+                <c:pt idx="196">
+                  <c:v>21 Jul 2017</c:v>
+                </c:pt>
+                <c:pt idx="197">
+                  <c:v>22 Jul 2017</c:v>
+                </c:pt>
+                <c:pt idx="198">
+                  <c:v>23 Jul 2017</c:v>
+                </c:pt>
+                <c:pt idx="199">
+                  <c:v>24 Jul 2017</c:v>
+                </c:pt>
+                <c:pt idx="200">
+                  <c:v>25 Jul 2017</c:v>
+                </c:pt>
+                <c:pt idx="201">
+                  <c:v>26 Jul 2017</c:v>
+                </c:pt>
+                <c:pt idx="202">
+                  <c:v>27 Jul 2017</c:v>
+                </c:pt>
+                <c:pt idx="203">
+                  <c:v>28 Jul 2017</c:v>
+                </c:pt>
+                <c:pt idx="204">
+                  <c:v>29 Jul 2017</c:v>
+                </c:pt>
+                <c:pt idx="205">
+                  <c:v>30 Jul 2017</c:v>
+                </c:pt>
+                <c:pt idx="206">
+                  <c:v>31 Jul 2017</c:v>
+                </c:pt>
+                <c:pt idx="207">
+                  <c:v>01 Aug 2017</c:v>
+                </c:pt>
+                <c:pt idx="208">
+                  <c:v>02 Aug 2017</c:v>
+                </c:pt>
+                <c:pt idx="209">
+                  <c:v>03 Aug 2017</c:v>
+                </c:pt>
+                <c:pt idx="210">
+                  <c:v>04 Aug 2017</c:v>
+                </c:pt>
+                <c:pt idx="211">
+                  <c:v>05 Aug 2017</c:v>
+                </c:pt>
+                <c:pt idx="212">
+                  <c:v>06 Aug 2017</c:v>
+                </c:pt>
+                <c:pt idx="213">
+                  <c:v>07 Aug 2017</c:v>
+                </c:pt>
+                <c:pt idx="214">
+                  <c:v>08 Aug 2017</c:v>
+                </c:pt>
+                <c:pt idx="215">
+                  <c:v>09 Aug 2017</c:v>
+                </c:pt>
+                <c:pt idx="216">
+                  <c:v>10 Aug 2017</c:v>
+                </c:pt>
+                <c:pt idx="217">
+                  <c:v>11 Aug 2017</c:v>
+                </c:pt>
+                <c:pt idx="218">
+                  <c:v>12 Aug 2017</c:v>
+                </c:pt>
+                <c:pt idx="219">
+                  <c:v>13 Aug 2017</c:v>
+                </c:pt>
+                <c:pt idx="220">
+                  <c:v>14 Aug 2017</c:v>
+                </c:pt>
+                <c:pt idx="221">
+                  <c:v>15 Aug 2017</c:v>
+                </c:pt>
+                <c:pt idx="222">
+                  <c:v>16 Aug 2017</c:v>
+                </c:pt>
+                <c:pt idx="223">
+                  <c:v>17 Aug 2017</c:v>
+                </c:pt>
+                <c:pt idx="224">
+                  <c:v>18 Aug 2017</c:v>
+                </c:pt>
+                <c:pt idx="225">
+                  <c:v>19 Aug 2017</c:v>
+                </c:pt>
+                <c:pt idx="226">
+                  <c:v>20 Aug 2017</c:v>
+                </c:pt>
+                <c:pt idx="227">
+                  <c:v>21 Aug 2017</c:v>
+                </c:pt>
+                <c:pt idx="228">
+                  <c:v>22 Aug 2017</c:v>
+                </c:pt>
+                <c:pt idx="229">
+                  <c:v>23 Aug 2017</c:v>
+                </c:pt>
+                <c:pt idx="230">
+                  <c:v>24 Aug 2017</c:v>
+                </c:pt>
+                <c:pt idx="231">
+                  <c:v>25 Aug 2017</c:v>
+                </c:pt>
+                <c:pt idx="232">
+                  <c:v>26 Aug 2017</c:v>
+                </c:pt>
+                <c:pt idx="233">
+                  <c:v>27 Aug 2017</c:v>
+                </c:pt>
+                <c:pt idx="234">
+                  <c:v>28 Aug 2017</c:v>
+                </c:pt>
+                <c:pt idx="235">
+                  <c:v>29 Aug 2017</c:v>
+                </c:pt>
+                <c:pt idx="236">
+                  <c:v>30 Aug 2017</c:v>
+                </c:pt>
+                <c:pt idx="237">
+                  <c:v>31 Aug 2017</c:v>
+                </c:pt>
+                <c:pt idx="238">
+                  <c:v>01 Sep 2017</c:v>
+                </c:pt>
+                <c:pt idx="239">
+                  <c:v>02 Sep 2017</c:v>
+                </c:pt>
+                <c:pt idx="240">
+                  <c:v>03 Sep 2017</c:v>
+                </c:pt>
+                <c:pt idx="241">
+                  <c:v>05 Sep 2017</c:v>
+                </c:pt>
+                <c:pt idx="242">
+                  <c:v>06 Sep 2017</c:v>
+                </c:pt>
+                <c:pt idx="243">
+                  <c:v>07 Sep 2017</c:v>
+                </c:pt>
+                <c:pt idx="244">
+                  <c:v>08 Sep 2017</c:v>
+                </c:pt>
+                <c:pt idx="245">
+                  <c:v>09 Sep 2017</c:v>
+                </c:pt>
+                <c:pt idx="246">
+                  <c:v>10 Sep 2017</c:v>
+                </c:pt>
+                <c:pt idx="247">
+                  <c:v>11 Sep 2017</c:v>
+                </c:pt>
+                <c:pt idx="248">
+                  <c:v>12 Sep 2017</c:v>
+                </c:pt>
+                <c:pt idx="249">
+                  <c:v>13 Sep 2017</c:v>
+                </c:pt>
+                <c:pt idx="250">
+                  <c:v>14 Sep 2017</c:v>
+                </c:pt>
+                <c:pt idx="251">
+                  <c:v>15 Sep 2017</c:v>
+                </c:pt>
+                <c:pt idx="252">
+                  <c:v>16 Sep 2017</c:v>
+                </c:pt>
+                <c:pt idx="253">
+                  <c:v>17 Sep 2017</c:v>
+                </c:pt>
+                <c:pt idx="254">
+                  <c:v>18 Sep 2017</c:v>
+                </c:pt>
+                <c:pt idx="255">
+                  <c:v>19 Sep 2017</c:v>
+                </c:pt>
+                <c:pt idx="256">
+                  <c:v>20 Sep 2017</c:v>
+                </c:pt>
+                <c:pt idx="257">
+                  <c:v>21 Sep 2017</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Ridership!$E$2:$E$153</c:f>
+              <c:f>Ridership!$E$2:$E$259</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="152"/>
+                <c:ptCount val="258"/>
                 <c:pt idx="0">
                   <c:v>98.51000000000001</c:v>
                 </c:pt>
@@ -3411,6 +5319,324 @@
                 </c:pt>
                 <c:pt idx="151">
                   <c:v>123.37</c:v>
+                </c:pt>
+                <c:pt idx="152">
+                  <c:v>123.53</c:v>
+                </c:pt>
+                <c:pt idx="153">
+                  <c:v>123.7</c:v>
+                </c:pt>
+                <c:pt idx="154">
+                  <c:v>123.86</c:v>
+                </c:pt>
+                <c:pt idx="155">
+                  <c:v>124.02</c:v>
+                </c:pt>
+                <c:pt idx="156">
+                  <c:v>124.18</c:v>
+                </c:pt>
+                <c:pt idx="157">
+                  <c:v>124.34</c:v>
+                </c:pt>
+                <c:pt idx="158">
+                  <c:v>124.5</c:v>
+                </c:pt>
+                <c:pt idx="159">
+                  <c:v>124.66</c:v>
+                </c:pt>
+                <c:pt idx="160">
+                  <c:v>124.83</c:v>
+                </c:pt>
+                <c:pt idx="161">
+                  <c:v>124.99</c:v>
+                </c:pt>
+                <c:pt idx="162">
+                  <c:v>125.15</c:v>
+                </c:pt>
+                <c:pt idx="163">
+                  <c:v>125.31</c:v>
+                </c:pt>
+                <c:pt idx="164">
+                  <c:v>125.47</c:v>
+                </c:pt>
+                <c:pt idx="165">
+                  <c:v>125.63</c:v>
+                </c:pt>
+                <c:pt idx="166">
+                  <c:v>125.79</c:v>
+                </c:pt>
+                <c:pt idx="167">
+                  <c:v>125.96</c:v>
+                </c:pt>
+                <c:pt idx="168">
+                  <c:v>126.12</c:v>
+                </c:pt>
+                <c:pt idx="169">
+                  <c:v>126.28</c:v>
+                </c:pt>
+                <c:pt idx="170">
+                  <c:v>126.44</c:v>
+                </c:pt>
+                <c:pt idx="171">
+                  <c:v>126.6</c:v>
+                </c:pt>
+                <c:pt idx="172">
+                  <c:v>126.76</c:v>
+                </c:pt>
+                <c:pt idx="173">
+                  <c:v>126.92</c:v>
+                </c:pt>
+                <c:pt idx="174">
+                  <c:v>127.09</c:v>
+                </c:pt>
+                <c:pt idx="175">
+                  <c:v>127.25</c:v>
+                </c:pt>
+                <c:pt idx="176">
+                  <c:v>127.41</c:v>
+                </c:pt>
+                <c:pt idx="177">
+                  <c:v>127.57</c:v>
+                </c:pt>
+                <c:pt idx="178">
+                  <c:v>127.73</c:v>
+                </c:pt>
+                <c:pt idx="179">
+                  <c:v>127.89</c:v>
+                </c:pt>
+                <c:pt idx="180">
+                  <c:v>128.22</c:v>
+                </c:pt>
+                <c:pt idx="181">
+                  <c:v>128.38</c:v>
+                </c:pt>
+                <c:pt idx="182">
+                  <c:v>128.54</c:v>
+                </c:pt>
+                <c:pt idx="183">
+                  <c:v>128.7</c:v>
+                </c:pt>
+                <c:pt idx="184">
+                  <c:v>128.86</c:v>
+                </c:pt>
+                <c:pt idx="185">
+                  <c:v>129.02</c:v>
+                </c:pt>
+                <c:pt idx="186">
+                  <c:v>129.18</c:v>
+                </c:pt>
+                <c:pt idx="187">
+                  <c:v>129.35</c:v>
+                </c:pt>
+                <c:pt idx="188">
+                  <c:v>129.51</c:v>
+                </c:pt>
+                <c:pt idx="189">
+                  <c:v>129.67</c:v>
+                </c:pt>
+                <c:pt idx="190">
+                  <c:v>129.83</c:v>
+                </c:pt>
+                <c:pt idx="191">
+                  <c:v>129.99</c:v>
+                </c:pt>
+                <c:pt idx="192">
+                  <c:v>130.15</c:v>
+                </c:pt>
+                <c:pt idx="193">
+                  <c:v>130.31</c:v>
+                </c:pt>
+                <c:pt idx="194">
+                  <c:v>130.48</c:v>
+                </c:pt>
+                <c:pt idx="195">
+                  <c:v>130.64</c:v>
+                </c:pt>
+                <c:pt idx="196">
+                  <c:v>130.8</c:v>
+                </c:pt>
+                <c:pt idx="197">
+                  <c:v>130.96</c:v>
+                </c:pt>
+                <c:pt idx="198">
+                  <c:v>131.12</c:v>
+                </c:pt>
+                <c:pt idx="199">
+                  <c:v>131.28</c:v>
+                </c:pt>
+                <c:pt idx="200">
+                  <c:v>131.44</c:v>
+                </c:pt>
+                <c:pt idx="201">
+                  <c:v>131.61</c:v>
+                </c:pt>
+                <c:pt idx="202">
+                  <c:v>131.77</c:v>
+                </c:pt>
+                <c:pt idx="203">
+                  <c:v>131.93</c:v>
+                </c:pt>
+                <c:pt idx="204">
+                  <c:v>132.09</c:v>
+                </c:pt>
+                <c:pt idx="205">
+                  <c:v>132.25</c:v>
+                </c:pt>
+                <c:pt idx="206">
+                  <c:v>132.41</c:v>
+                </c:pt>
+                <c:pt idx="207">
+                  <c:v>132.57</c:v>
+                </c:pt>
+                <c:pt idx="208">
+                  <c:v>132.74</c:v>
+                </c:pt>
+                <c:pt idx="209">
+                  <c:v>132.9</c:v>
+                </c:pt>
+                <c:pt idx="210">
+                  <c:v>133.06</c:v>
+                </c:pt>
+                <c:pt idx="211">
+                  <c:v>133.22</c:v>
+                </c:pt>
+                <c:pt idx="212">
+                  <c:v>133.38</c:v>
+                </c:pt>
+                <c:pt idx="213">
+                  <c:v>133.54</c:v>
+                </c:pt>
+                <c:pt idx="214">
+                  <c:v>133.7</c:v>
+                </c:pt>
+                <c:pt idx="215">
+                  <c:v>133.87</c:v>
+                </c:pt>
+                <c:pt idx="216">
+                  <c:v>134.03</c:v>
+                </c:pt>
+                <c:pt idx="217">
+                  <c:v>134.19</c:v>
+                </c:pt>
+                <c:pt idx="218">
+                  <c:v>134.35</c:v>
+                </c:pt>
+                <c:pt idx="219">
+                  <c:v>134.51</c:v>
+                </c:pt>
+                <c:pt idx="220">
+                  <c:v>134.67</c:v>
+                </c:pt>
+                <c:pt idx="221">
+                  <c:v>134.84</c:v>
+                </c:pt>
+                <c:pt idx="222">
+                  <c:v>135</c:v>
+                </c:pt>
+                <c:pt idx="223">
+                  <c:v>135.16</c:v>
+                </c:pt>
+                <c:pt idx="224">
+                  <c:v>135.32</c:v>
+                </c:pt>
+                <c:pt idx="225">
+                  <c:v>135.48</c:v>
+                </c:pt>
+                <c:pt idx="226">
+                  <c:v>135.64</c:v>
+                </c:pt>
+                <c:pt idx="227">
+                  <c:v>135.8</c:v>
+                </c:pt>
+                <c:pt idx="228">
+                  <c:v>135.97</c:v>
+                </c:pt>
+                <c:pt idx="229">
+                  <c:v>136.13</c:v>
+                </c:pt>
+                <c:pt idx="230">
+                  <c:v>136.29</c:v>
+                </c:pt>
+                <c:pt idx="231">
+                  <c:v>136.45</c:v>
+                </c:pt>
+                <c:pt idx="232">
+                  <c:v>136.61</c:v>
+                </c:pt>
+                <c:pt idx="233">
+                  <c:v>136.77</c:v>
+                </c:pt>
+                <c:pt idx="234">
+                  <c:v>136.93</c:v>
+                </c:pt>
+                <c:pt idx="235">
+                  <c:v>137.1</c:v>
+                </c:pt>
+                <c:pt idx="236">
+                  <c:v>137.26</c:v>
+                </c:pt>
+                <c:pt idx="237">
+                  <c:v>137.42</c:v>
+                </c:pt>
+                <c:pt idx="238">
+                  <c:v>137.58</c:v>
+                </c:pt>
+                <c:pt idx="239">
+                  <c:v>137.74</c:v>
+                </c:pt>
+                <c:pt idx="240">
+                  <c:v>137.9</c:v>
+                </c:pt>
+                <c:pt idx="241">
+                  <c:v>138.23</c:v>
+                </c:pt>
+                <c:pt idx="242">
+                  <c:v>138.39</c:v>
+                </c:pt>
+                <c:pt idx="243">
+                  <c:v>138.55</c:v>
+                </c:pt>
+                <c:pt idx="244">
+                  <c:v>138.71</c:v>
+                </c:pt>
+                <c:pt idx="245">
+                  <c:v>138.87</c:v>
+                </c:pt>
+                <c:pt idx="246">
+                  <c:v>139.03</c:v>
+                </c:pt>
+                <c:pt idx="247">
+                  <c:v>139.19</c:v>
+                </c:pt>
+                <c:pt idx="248">
+                  <c:v>139.36</c:v>
+                </c:pt>
+                <c:pt idx="249">
+                  <c:v>139.52</c:v>
+                </c:pt>
+                <c:pt idx="250">
+                  <c:v>139.68</c:v>
+                </c:pt>
+                <c:pt idx="251">
+                  <c:v>139.84</c:v>
+                </c:pt>
+                <c:pt idx="252">
+                  <c:v>140</c:v>
+                </c:pt>
+                <c:pt idx="253">
+                  <c:v>140.16</c:v>
+                </c:pt>
+                <c:pt idx="254">
+                  <c:v>140.32</c:v>
+                </c:pt>
+                <c:pt idx="255">
+                  <c:v>140.49</c:v>
+                </c:pt>
+                <c:pt idx="256">
+                  <c:v>140.65</c:v>
+                </c:pt>
+                <c:pt idx="257">
+                  <c:v>140.81</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3503,13 +5729,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>95250</xdr:colOff>
-      <xdr:row>155</xdr:row>
+      <xdr:row>261</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>428625</xdr:colOff>
-      <xdr:row>169</xdr:row>
+      <xdr:row>275</xdr:row>
       <xdr:rowOff>171450</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -3817,7 +6043,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E153"/>
+  <dimension ref="A1:E259"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -3855,10 +6081,10 @@
         <v>6</v>
       </c>
       <c r="C2">
-        <v>100</v>
+        <v>91</v>
       </c>
       <c r="D2">
-        <v>224.7</v>
+        <v>229.3</v>
       </c>
       <c r="E2">
         <v>98.51000000000001</v>
@@ -3872,10 +6098,10 @@
         <v>8</v>
       </c>
       <c r="C3">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="D3">
-        <v>208</v>
+        <v>208.6</v>
       </c>
       <c r="E3">
         <v>98.67</v>
@@ -3889,10 +6115,10 @@
         <v>10</v>
       </c>
       <c r="C4">
-        <v>266</v>
+        <v>209</v>
       </c>
       <c r="D4">
-        <v>207</v>
+        <v>193.5</v>
       </c>
       <c r="E4">
         <v>98.83</v>
@@ -3906,10 +6132,10 @@
         <v>12</v>
       </c>
       <c r="C5">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="D5">
-        <v>224</v>
+        <v>217.78</v>
       </c>
       <c r="E5">
         <v>98.98999999999999</v>
@@ -3923,10 +6149,10 @@
         <v>14</v>
       </c>
       <c r="C6">
-        <v>304</v>
+        <v>266</v>
       </c>
       <c r="D6">
-        <v>229.7</v>
+        <v>231.3</v>
       </c>
       <c r="E6">
         <v>99.16</v>
@@ -3940,10 +6166,10 @@
         <v>16</v>
       </c>
       <c r="C7">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="D7">
-        <v>117.45</v>
+        <v>118.27</v>
       </c>
       <c r="E7">
         <v>99.31999999999999</v>
@@ -3957,10 +6183,10 @@
         <v>18</v>
       </c>
       <c r="C8">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D8">
-        <v>105.22</v>
+        <v>103.33</v>
       </c>
       <c r="E8">
         <v>99.48</v>
@@ -3974,10 +6200,10 @@
         <v>19</v>
       </c>
       <c r="C9">
-        <v>271</v>
+        <v>265</v>
       </c>
       <c r="D9">
-        <v>228.91</v>
+        <v>232.55</v>
       </c>
       <c r="E9">
         <v>99.64</v>
@@ -3991,10 +6217,10 @@
         <v>20</v>
       </c>
       <c r="C10">
-        <v>229</v>
+        <v>222</v>
       </c>
       <c r="D10">
-        <v>209.91</v>
+        <v>209.82</v>
       </c>
       <c r="E10">
         <v>99.8</v>
@@ -4008,10 +6234,10 @@
         <v>21</v>
       </c>
       <c r="C11">
-        <v>243</v>
+        <v>218</v>
       </c>
       <c r="D11">
-        <v>210.27</v>
+        <v>195.73</v>
       </c>
       <c r="E11">
         <v>99.95999999999999</v>
@@ -4025,10 +6251,10 @@
         <v>22</v>
       </c>
       <c r="C12">
-        <v>209</v>
+        <v>241</v>
       </c>
       <c r="D12">
-        <v>222.5</v>
+        <v>220.1</v>
       </c>
       <c r="E12">
         <v>100.12</v>
@@ -4042,10 +6268,10 @@
         <v>23</v>
       </c>
       <c r="C13">
-        <v>283</v>
+        <v>289</v>
       </c>
       <c r="D13">
-        <v>234.55</v>
+        <v>236.55</v>
       </c>
       <c r="E13">
         <v>100.29</v>
@@ -4059,10 +6285,10 @@
         <v>24</v>
       </c>
       <c r="C14">
-        <v>98</v>
+        <v>108</v>
       </c>
       <c r="D14">
-        <v>115.83</v>
+        <v>117.42</v>
       </c>
       <c r="E14">
         <v>100.45</v>
@@ -4076,10 +6302,10 @@
         <v>25</v>
       </c>
       <c r="C15">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="D15">
-        <v>103</v>
+        <v>101.5</v>
       </c>
       <c r="E15">
         <v>100.61</v>
@@ -4093,10 +6319,10 @@
         <v>26</v>
       </c>
       <c r="C16">
-        <v>248</v>
+        <v>238</v>
       </c>
       <c r="D16">
-        <v>213.08</v>
+        <v>212.17</v>
       </c>
       <c r="E16">
         <v>100.93</v>
@@ -4110,10 +6336,10 @@
         <v>27</v>
       </c>
       <c r="C17">
-        <v>202</v>
+        <v>177</v>
       </c>
       <c r="D17">
-        <v>209.58</v>
+        <v>194.17</v>
       </c>
       <c r="E17">
         <v>101.09</v>
@@ -4127,10 +6353,10 @@
         <v>28</v>
       </c>
       <c r="C18">
-        <v>296</v>
+        <v>275</v>
       </c>
       <c r="D18">
-        <v>229.18</v>
+        <v>225.09</v>
       </c>
       <c r="E18">
         <v>101.25</v>
@@ -4144,10 +6370,10 @@
         <v>29</v>
       </c>
       <c r="C19">
-        <v>230</v>
+        <v>246</v>
       </c>
       <c r="D19">
-        <v>234.17</v>
+        <v>237.33</v>
       </c>
       <c r="E19">
         <v>101.42</v>
@@ -4161,10 +6387,10 @@
         <v>30</v>
       </c>
       <c r="C20">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="D20">
-        <v>120.31</v>
+        <v>121.92</v>
       </c>
       <c r="E20">
         <v>101.58</v>
@@ -4178,10 +6404,10 @@
         <v>31</v>
       </c>
       <c r="C21">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D21">
-        <v>105.09</v>
+        <v>103.64</v>
       </c>
       <c r="E21">
         <v>101.74</v>
@@ -4195,10 +6421,10 @@
         <v>32</v>
       </c>
       <c r="C22">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="D22">
-        <v>227.25</v>
+        <v>230.75</v>
       </c>
       <c r="E22">
         <v>101.9</v>
@@ -4212,10 +6438,10 @@
         <v>33</v>
       </c>
       <c r="C23">
-        <v>208</v>
+        <v>176</v>
       </c>
       <c r="D23">
-        <v>212.69</v>
+        <v>209.38</v>
       </c>
       <c r="E23">
         <v>102.06</v>
@@ -4229,10 +6455,10 @@
         <v>34</v>
       </c>
       <c r="C24">
-        <v>222</v>
+        <v>204</v>
       </c>
       <c r="D24">
-        <v>210.54</v>
+        <v>194.92</v>
       </c>
       <c r="E24">
         <v>102.22</v>
@@ -4246,10 +6472,10 @@
         <v>35</v>
       </c>
       <c r="C25">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="D25">
-        <v>228.5</v>
+        <v>224.67</v>
       </c>
       <c r="E25">
         <v>102.38</v>
@@ -4263,10 +6489,10 @@
         <v>36</v>
       </c>
       <c r="C26">
-        <v>253</v>
+        <v>236</v>
       </c>
       <c r="D26">
-        <v>235.62</v>
+        <v>237.23</v>
       </c>
       <c r="E26">
         <v>102.55</v>
@@ -4280,10 +6506,10 @@
         <v>37</v>
       </c>
       <c r="C27">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="D27">
-        <v>119.79</v>
+        <v>121.14</v>
       </c>
       <c r="E27">
         <v>102.71</v>
@@ -4297,10 +6523,10 @@
         <v>38</v>
       </c>
       <c r="C28">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="D28">
-        <v>107.42</v>
+        <v>105.92</v>
       </c>
       <c r="E28">
         <v>102.87</v>
@@ -4314,10 +6540,10 @@
         <v>39</v>
       </c>
       <c r="C29">
-        <v>262</v>
+        <v>286</v>
       </c>
       <c r="D29">
-        <v>229.92</v>
+        <v>235</v>
       </c>
       <c r="E29">
         <v>103.03</v>
@@ -4331,10 +6557,10 @@
         <v>40</v>
       </c>
       <c r="C30">
-        <v>208</v>
+        <v>241</v>
       </c>
       <c r="D30">
-        <v>212.36</v>
+        <v>211.64</v>
       </c>
       <c r="E30">
         <v>103.19</v>
@@ -4348,10 +6574,10 @@
         <v>41</v>
       </c>
       <c r="C31">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="D31">
-        <v>210.07</v>
+        <v>195.29</v>
       </c>
       <c r="E31">
         <v>103.35</v>
@@ -4365,10 +6591,10 @@
         <v>42</v>
       </c>
       <c r="C32">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="D32">
-        <v>226.31</v>
+        <v>222.46</v>
       </c>
       <c r="E32">
         <v>103.51</v>
@@ -4382,10 +6608,10 @@
         <v>43</v>
       </c>
       <c r="C33">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="D33">
-        <v>237.29</v>
+        <v>238.64</v>
       </c>
       <c r="E33">
         <v>103.68</v>
@@ -4399,10 +6625,10 @@
         <v>44</v>
       </c>
       <c r="C34">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="D34">
-        <v>118.8</v>
+        <v>120.2</v>
       </c>
       <c r="E34">
         <v>103.84</v>
@@ -4416,10 +6642,10 @@
         <v>45</v>
       </c>
       <c r="C35">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D35">
-        <v>102.38</v>
+        <v>101.08</v>
       </c>
       <c r="E35">
         <v>104</v>
@@ -4433,10 +6659,10 @@
         <v>46</v>
       </c>
       <c r="C36">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="D36">
-        <v>225.93</v>
+        <v>230.71</v>
       </c>
       <c r="E36">
         <v>104.16</v>
@@ -4450,10 +6676,10 @@
         <v>47</v>
       </c>
       <c r="C37">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="D37">
-        <v>206.73</v>
+        <v>206.27</v>
       </c>
       <c r="E37">
         <v>104.32</v>
@@ -4467,10 +6693,10 @@
         <v>48</v>
       </c>
       <c r="C38">
-        <v>222</v>
+        <v>260</v>
       </c>
       <c r="D38">
-        <v>210.87</v>
+        <v>199.6</v>
       </c>
       <c r="E38">
         <v>104.48</v>
@@ -4484,10 +6710,10 @@
         <v>49</v>
       </c>
       <c r="C39">
-        <v>238</v>
+        <v>271</v>
       </c>
       <c r="D39">
-        <v>227.14</v>
+        <v>225.93</v>
       </c>
       <c r="E39">
         <v>104.64</v>
@@ -4501,10 +6727,10 @@
         <v>50</v>
       </c>
       <c r="C40">
-        <v>219</v>
+        <v>232</v>
       </c>
       <c r="D40">
-        <v>236.07</v>
+        <v>238.2</v>
       </c>
       <c r="E40">
         <v>104.81</v>
@@ -4521,7 +6747,7 @@
         <v>95</v>
       </c>
       <c r="D41">
-        <v>117.31</v>
+        <v>118.62</v>
       </c>
       <c r="E41">
         <v>104.97</v>
@@ -4535,10 +6761,10 @@
         <v>52</v>
       </c>
       <c r="C42">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="D42">
-        <v>104</v>
+        <v>102.93</v>
       </c>
       <c r="E42">
         <v>105.13</v>
@@ -4552,10 +6778,10 @@
         <v>53</v>
       </c>
       <c r="C43">
-        <v>219</v>
+        <v>208</v>
       </c>
       <c r="D43">
-        <v>225.47</v>
+        <v>229.2</v>
       </c>
       <c r="E43">
         <v>105.29</v>
@@ -4569,10 +6795,10 @@
         <v>54</v>
       </c>
       <c r="C44">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="D44">
-        <v>209.19</v>
+        <v>208.5</v>
       </c>
       <c r="E44">
         <v>105.45</v>
@@ -4586,10 +6812,10 @@
         <v>55</v>
       </c>
       <c r="C45">
-        <v>258</v>
+        <v>264</v>
       </c>
       <c r="D45">
-        <v>213.81</v>
+        <v>203.62</v>
       </c>
       <c r="E45">
         <v>105.61</v>
@@ -4603,10 +6829,10 @@
         <v>56</v>
       </c>
       <c r="C46">
-        <v>258</v>
+        <v>282</v>
       </c>
       <c r="D46">
-        <v>229.2</v>
+        <v>229.67</v>
       </c>
       <c r="E46">
         <v>105.77</v>
@@ -4620,10 +6846,10 @@
         <v>57</v>
       </c>
       <c r="C47">
-        <v>253</v>
+        <v>246</v>
       </c>
       <c r="D47">
-        <v>237.12</v>
+        <v>238.69</v>
       </c>
       <c r="E47">
         <v>105.94</v>
@@ -4637,10 +6863,10 @@
         <v>58</v>
       </c>
       <c r="C48">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D48">
-        <v>118.88</v>
+        <v>120.06</v>
       </c>
       <c r="E48">
         <v>106.1</v>
@@ -4654,10 +6880,10 @@
         <v>59</v>
       </c>
       <c r="C49">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="D49">
-        <v>103.67</v>
+        <v>102.47</v>
       </c>
       <c r="E49">
         <v>106.26</v>
@@ -4671,10 +6897,10 @@
         <v>60</v>
       </c>
       <c r="C50">
-        <v>200</v>
+        <v>219</v>
       </c>
       <c r="D50">
-        <v>208.65</v>
+        <v>209.12</v>
       </c>
       <c r="E50">
         <v>106.58</v>
@@ -4688,10 +6914,10 @@
         <v>61</v>
       </c>
       <c r="C51">
-        <v>245</v>
+        <v>288</v>
       </c>
       <c r="D51">
-        <v>215.65</v>
+        <v>208.59</v>
       </c>
       <c r="E51">
         <v>106.74</v>
@@ -4705,10 +6931,10 @@
         <v>62</v>
       </c>
       <c r="C52">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="D52">
-        <v>230.25</v>
+        <v>230.38</v>
       </c>
       <c r="E52">
         <v>106.9</v>
@@ -4722,10 +6948,10 @@
         <v>63</v>
       </c>
       <c r="C53">
-        <v>267</v>
+        <v>258</v>
       </c>
       <c r="D53">
-        <v>238.88</v>
+        <v>239.82</v>
       </c>
       <c r="E53">
         <v>107.07</v>
@@ -4739,10 +6965,10 @@
         <v>64</v>
       </c>
       <c r="C54">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="D54">
-        <v>118</v>
+        <v>118.83</v>
       </c>
       <c r="E54">
         <v>107.23</v>
@@ -4756,10 +6982,10 @@
         <v>65</v>
       </c>
       <c r="C55">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D55">
-        <v>102.94</v>
+        <v>101.88</v>
       </c>
       <c r="E55">
         <v>107.39</v>
@@ -4773,10 +6999,10 @@
         <v>66</v>
       </c>
       <c r="C56">
-        <v>229</v>
+        <v>242</v>
       </c>
       <c r="D56">
-        <v>225.69</v>
+        <v>230</v>
       </c>
       <c r="E56">
         <v>107.55</v>
@@ -4790,10 +7016,10 @@
         <v>67</v>
       </c>
       <c r="C57">
-        <v>259</v>
+        <v>238</v>
       </c>
       <c r="D57">
-        <v>211.44</v>
+        <v>210.72</v>
       </c>
       <c r="E57">
         <v>107.71</v>
@@ -4807,10 +7033,10 @@
         <v>68</v>
       </c>
       <c r="C58">
-        <v>218</v>
+        <v>244</v>
       </c>
       <c r="D58">
-        <v>215.78</v>
+        <v>210.56</v>
       </c>
       <c r="E58">
         <v>107.87</v>
@@ -4824,10 +7050,10 @@
         <v>69</v>
       </c>
       <c r="C59">
-        <v>203</v>
+        <v>219</v>
       </c>
       <c r="D59">
-        <v>228.65</v>
+        <v>229.71</v>
       </c>
       <c r="E59">
         <v>108.03</v>
@@ -4841,10 +7067,10 @@
         <v>70</v>
       </c>
       <c r="C60">
-        <v>258</v>
+        <v>241</v>
       </c>
       <c r="D60">
-        <v>239.94</v>
+        <v>239.89</v>
       </c>
       <c r="E60">
         <v>108.2</v>
@@ -4858,10 +7084,10 @@
         <v>71</v>
       </c>
       <c r="C61">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="D61">
-        <v>116.89</v>
+        <v>117.84</v>
       </c>
       <c r="E61">
         <v>108.36</v>
@@ -4875,10 +7101,10 @@
         <v>72</v>
       </c>
       <c r="C62">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="D62">
-        <v>100.35</v>
+        <v>99.47</v>
       </c>
       <c r="E62">
         <v>108.52</v>
@@ -4892,10 +7118,10 @@
         <v>73</v>
       </c>
       <c r="C63">
-        <v>242</v>
+        <v>212</v>
       </c>
       <c r="D63">
-        <v>226.65</v>
+        <v>228.94</v>
       </c>
       <c r="E63">
         <v>108.68</v>
@@ -4909,10 +7135,10 @@
         <v>74</v>
       </c>
       <c r="C64">
-        <v>181</v>
+        <v>216</v>
       </c>
       <c r="D64">
-        <v>209.84</v>
+        <v>211</v>
       </c>
       <c r="E64">
         <v>108.84</v>
@@ -4926,10 +7152,10 @@
         <v>75</v>
       </c>
       <c r="C65">
-        <v>315</v>
+        <v>239</v>
       </c>
       <c r="D65">
-        <v>221</v>
+        <v>212.05</v>
       </c>
       <c r="E65">
         <v>109</v>
@@ -4943,10 +7169,10 @@
         <v>76</v>
       </c>
       <c r="C66">
-        <v>175</v>
+        <v>238</v>
       </c>
       <c r="D66">
-        <v>225.67</v>
+        <v>230.17</v>
       </c>
       <c r="E66">
         <v>109.16</v>
@@ -4960,10 +7186,10 @@
         <v>77</v>
       </c>
       <c r="C67">
-        <v>260</v>
+        <v>219</v>
       </c>
       <c r="D67">
-        <v>241</v>
+        <v>238.79</v>
       </c>
       <c r="E67">
         <v>109.33</v>
@@ -4980,7 +7206,7 @@
         <v>102</v>
       </c>
       <c r="D68">
-        <v>116.15</v>
+        <v>117.05</v>
       </c>
       <c r="E68">
         <v>109.49</v>
@@ -4994,10 +7220,10 @@
         <v>79</v>
       </c>
       <c r="C69">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="D69">
-        <v>98.89</v>
+        <v>97.89</v>
       </c>
       <c r="E69">
         <v>109.65</v>
@@ -5011,10 +7237,10 @@
         <v>80</v>
       </c>
       <c r="C70">
-        <v>185</v>
+        <v>267</v>
       </c>
       <c r="D70">
-        <v>224.33</v>
+        <v>231.06</v>
       </c>
       <c r="E70">
         <v>109.81</v>
@@ -5028,10 +7254,10 @@
         <v>81</v>
       </c>
       <c r="C71">
-        <v>234</v>
+        <v>243</v>
       </c>
       <c r="D71">
-        <v>211.05</v>
+        <v>212.6</v>
       </c>
       <c r="E71">
         <v>109.97</v>
@@ -5045,10 +7271,10 @@
         <v>82</v>
       </c>
       <c r="C72">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="D72">
-        <v>220.05</v>
+        <v>211.75</v>
       </c>
       <c r="E72">
         <v>110.13</v>
@@ -5062,10 +7288,10 @@
         <v>83</v>
       </c>
       <c r="C73">
-        <v>413</v>
+        <v>415</v>
       </c>
       <c r="D73">
-        <v>235.53</v>
+        <v>239.89</v>
       </c>
       <c r="E73">
         <v>110.3</v>
@@ -5079,10 +7305,10 @@
         <v>84</v>
       </c>
       <c r="C74">
-        <v>160</v>
+        <v>213</v>
       </c>
       <c r="D74">
-        <v>236.95</v>
+        <v>237.5</v>
       </c>
       <c r="E74">
         <v>110.46</v>
@@ -5096,10 +7322,10 @@
         <v>85</v>
       </c>
       <c r="C75">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="D75">
-        <v>116.29</v>
+        <v>116.9</v>
       </c>
       <c r="E75">
         <v>110.62</v>
@@ -5113,10 +7339,10 @@
         <v>86</v>
       </c>
       <c r="C76">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="D76">
-        <v>97.31999999999999</v>
+        <v>96.63</v>
       </c>
       <c r="E76">
         <v>110.78</v>
@@ -5130,10 +7356,10 @@
         <v>87</v>
       </c>
       <c r="C77">
-        <v>259</v>
+        <v>277</v>
       </c>
       <c r="D77">
-        <v>226.16</v>
+        <v>233.47</v>
       </c>
       <c r="E77">
         <v>110.94</v>
@@ -5147,10 +7373,10 @@
         <v>88</v>
       </c>
       <c r="C78">
-        <v>237</v>
+        <v>219</v>
       </c>
       <c r="D78">
-        <v>212.29</v>
+        <v>212.9</v>
       </c>
       <c r="E78">
         <v>111.1</v>
@@ -5164,10 +7390,10 @@
         <v>89</v>
       </c>
       <c r="C79">
-        <v>200</v>
+        <v>215</v>
       </c>
       <c r="D79">
-        <v>219.1</v>
+        <v>211.9</v>
       </c>
       <c r="E79">
         <v>111.26</v>
@@ -5181,10 +7407,10 @@
         <v>90</v>
       </c>
       <c r="C80">
-        <v>229</v>
+        <v>204</v>
       </c>
       <c r="D80">
-        <v>235.2</v>
+        <v>238.1</v>
       </c>
       <c r="E80">
         <v>111.43</v>
@@ -5198,10 +7424,10 @@
         <v>91</v>
       </c>
       <c r="C81">
-        <v>280</v>
+        <v>305</v>
       </c>
       <c r="D81">
-        <v>239</v>
+        <v>240.71</v>
       </c>
       <c r="E81">
         <v>111.59</v>
@@ -5215,10 +7441,10 @@
         <v>92</v>
       </c>
       <c r="C82">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="D82">
-        <v>115.05</v>
+        <v>115.45</v>
       </c>
       <c r="E82">
         <v>111.75</v>
@@ -5232,10 +7458,10 @@
         <v>93</v>
       </c>
       <c r="C83">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D83">
-        <v>95.84999999999999</v>
+        <v>95.25</v>
       </c>
       <c r="E83">
         <v>111.91</v>
@@ -5249,10 +7475,10 @@
         <v>94</v>
       </c>
       <c r="C84">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="D84">
-        <v>220.05</v>
+        <v>226.75</v>
       </c>
       <c r="E84">
         <v>112.07</v>
@@ -5266,10 +7492,10 @@
         <v>95</v>
       </c>
       <c r="C85">
-        <v>205</v>
+        <v>185</v>
       </c>
       <c r="D85">
-        <v>211.95</v>
+        <v>211.64</v>
       </c>
       <c r="E85">
         <v>112.23</v>
@@ -5283,10 +7509,10 @@
         <v>96</v>
       </c>
       <c r="C86">
-        <v>239</v>
+        <v>221</v>
       </c>
       <c r="D86">
-        <v>220</v>
+        <v>212.32</v>
       </c>
       <c r="E86">
         <v>112.39</v>
@@ -5300,10 +7526,10 @@
         <v>97</v>
       </c>
       <c r="C87">
-        <v>243</v>
+        <v>264</v>
       </c>
       <c r="D87">
-        <v>235.57</v>
+        <v>239.33</v>
       </c>
       <c r="E87">
         <v>112.56</v>
@@ -5317,10 +7543,10 @@
         <v>98</v>
       </c>
       <c r="C88">
-        <v>230</v>
+        <v>260</v>
       </c>
       <c r="D88">
-        <v>238.59</v>
+        <v>241.59</v>
       </c>
       <c r="E88">
         <v>112.72</v>
@@ -5334,10 +7560,10 @@
         <v>99</v>
       </c>
       <c r="C89">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="D89">
-        <v>113.57</v>
+        <v>113.83</v>
       </c>
       <c r="E89">
         <v>112.88</v>
@@ -5351,10 +7577,10 @@
         <v>100</v>
       </c>
       <c r="C90">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="D90">
-        <v>94.67</v>
+        <v>94.23999999999999</v>
       </c>
       <c r="E90">
         <v>113.04</v>
@@ -5368,10 +7594,10 @@
         <v>101</v>
       </c>
       <c r="C91">
-        <v>212</v>
+        <v>193</v>
       </c>
       <c r="D91">
-        <v>219.67</v>
+        <v>225.14</v>
       </c>
       <c r="E91">
         <v>113.2</v>
@@ -5385,10 +7611,10 @@
         <v>102</v>
       </c>
       <c r="C92">
-        <v>217</v>
+        <v>205</v>
       </c>
       <c r="D92">
-        <v>212.17</v>
+        <v>211.35</v>
       </c>
       <c r="E92">
         <v>113.36</v>
@@ -5402,10 +7628,10 @@
         <v>103</v>
       </c>
       <c r="C93">
-        <v>242</v>
+        <v>233</v>
       </c>
       <c r="D93">
-        <v>220.96</v>
+        <v>213.22</v>
       </c>
       <c r="E93">
         <v>113.52</v>
@@ -5419,10 +7645,10 @@
         <v>104</v>
       </c>
       <c r="C94">
-        <v>230</v>
+        <v>239</v>
       </c>
       <c r="D94">
-        <v>235.32</v>
+        <v>239.32</v>
       </c>
       <c r="E94">
         <v>113.69</v>
@@ -5436,10 +7662,10 @@
         <v>105</v>
       </c>
       <c r="C95">
-        <v>193</v>
+        <v>270</v>
       </c>
       <c r="D95">
-        <v>236.61</v>
+        <v>242.83</v>
       </c>
       <c r="E95">
         <v>113.85</v>
@@ -5453,10 +7679,10 @@
         <v>106</v>
       </c>
       <c r="C96">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="D96">
-        <v>112.88</v>
+        <v>113.04</v>
       </c>
       <c r="E96">
         <v>114.01</v>
@@ -5470,10 +7696,10 @@
         <v>107</v>
       </c>
       <c r="C97">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D97">
-        <v>93.55</v>
+        <v>93.09</v>
       </c>
       <c r="E97">
         <v>114.17</v>
@@ -5487,10 +7713,10 @@
         <v>108</v>
       </c>
       <c r="C98">
-        <v>250</v>
+        <v>235</v>
       </c>
       <c r="D98">
-        <v>221.05</v>
+        <v>225.59</v>
       </c>
       <c r="E98">
         <v>114.33</v>
@@ -5504,10 +7730,10 @@
         <v>109</v>
       </c>
       <c r="C99">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="D99">
-        <v>210.92</v>
+        <v>210.29</v>
       </c>
       <c r="E99">
         <v>114.49</v>
@@ -5521,10 +7747,10 @@
         <v>110</v>
       </c>
       <c r="C100">
-        <v>175</v>
+        <v>207</v>
       </c>
       <c r="D100">
-        <v>219.04</v>
+        <v>212.96</v>
       </c>
       <c r="E100">
         <v>114.65</v>
@@ -5538,10 +7764,10 @@
         <v>111</v>
       </c>
       <c r="C101">
-        <v>261</v>
+        <v>283</v>
       </c>
       <c r="D101">
-        <v>236.43</v>
+        <v>241.22</v>
       </c>
       <c r="E101">
         <v>114.82</v>
@@ -5555,10 +7781,10 @@
         <v>112</v>
       </c>
       <c r="C102">
-        <v>303</v>
+        <v>245</v>
       </c>
       <c r="D102">
-        <v>239.38</v>
+        <v>242.92</v>
       </c>
       <c r="E102">
         <v>114.98</v>
@@ -5572,10 +7798,10 @@
         <v>113</v>
       </c>
       <c r="C103">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="D103">
-        <v>113.96</v>
+        <v>114.28</v>
       </c>
       <c r="E103">
         <v>115.14</v>
@@ -5589,10 +7815,10 @@
         <v>114</v>
       </c>
       <c r="C104">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="D104">
-        <v>93.09</v>
+        <v>92.73999999999999</v>
       </c>
       <c r="E104">
         <v>115.3</v>
@@ -5606,10 +7832,10 @@
         <v>115</v>
       </c>
       <c r="C105">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="D105">
-        <v>224.09</v>
+        <v>228.3</v>
       </c>
       <c r="E105">
         <v>115.46</v>
@@ -5623,10 +7849,10 @@
         <v>116</v>
       </c>
       <c r="C106">
-        <v>270</v>
+        <v>352</v>
       </c>
       <c r="D106">
-        <v>213.28</v>
+        <v>215.96</v>
       </c>
       <c r="E106">
         <v>115.62</v>
@@ -5640,10 +7866,10 @@
         <v>117</v>
       </c>
       <c r="C107">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="D107">
-        <v>218.08</v>
+        <v>212.04</v>
       </c>
       <c r="E107">
         <v>115.78</v>
@@ -5657,10 +7883,10 @@
         <v>118</v>
       </c>
       <c r="C108">
-        <v>238</v>
+        <v>207</v>
       </c>
       <c r="D108">
-        <v>236.5</v>
+        <v>239.79</v>
       </c>
       <c r="E108">
         <v>115.95</v>
@@ -5674,10 +7900,10 @@
         <v>119</v>
       </c>
       <c r="C109">
-        <v>300</v>
+        <v>227</v>
       </c>
       <c r="D109">
-        <v>241.8</v>
+        <v>242.28</v>
       </c>
       <c r="E109">
         <v>116.11</v>
@@ -5691,10 +7917,10 @@
         <v>120</v>
       </c>
       <c r="C110">
-        <v>101</v>
+        <v>111</v>
       </c>
       <c r="D110">
-        <v>113.46</v>
+        <v>114.15</v>
       </c>
       <c r="E110">
         <v>116.27</v>
@@ -5708,10 +7934,10 @@
         <v>121</v>
       </c>
       <c r="C111">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="D111">
-        <v>92.38</v>
+        <v>92.45999999999999</v>
       </c>
       <c r="E111">
         <v>116.43</v>
@@ -5725,10 +7951,10 @@
         <v>122</v>
       </c>
       <c r="C112">
-        <v>256</v>
+        <v>197</v>
       </c>
       <c r="D112">
-        <v>225.42</v>
+        <v>227</v>
       </c>
       <c r="E112">
         <v>116.59</v>
@@ -5745,7 +7971,7 @@
         <v>275</v>
       </c>
       <c r="D113">
-        <v>215.65</v>
+        <v>218.23</v>
       </c>
       <c r="E113">
         <v>116.75</v>
@@ -5759,10 +7985,10 @@
         <v>124</v>
       </c>
       <c r="C114">
-        <v>264</v>
+        <v>206</v>
       </c>
       <c r="D114">
-        <v>219.85</v>
+        <v>211.81</v>
       </c>
       <c r="E114">
         <v>116.91</v>
@@ -5776,10 +8002,10 @@
         <v>125</v>
       </c>
       <c r="C115">
-        <v>251</v>
+        <v>160</v>
       </c>
       <c r="D115">
-        <v>237.08</v>
+        <v>236.6</v>
       </c>
       <c r="E115">
         <v>117.08</v>
@@ -5793,10 +8019,10 @@
         <v>126</v>
       </c>
       <c r="C116">
-        <v>218</v>
+        <v>229</v>
       </c>
       <c r="D116">
-        <v>240.88</v>
+        <v>241.77</v>
       </c>
       <c r="E116">
         <v>117.24</v>
@@ -5813,7 +8039,7 @@
         <v>87</v>
       </c>
       <c r="D117">
-        <v>112.48</v>
+        <v>113.15</v>
       </c>
       <c r="E117">
         <v>117.4</v>
@@ -5827,10 +8053,10 @@
         <v>128</v>
       </c>
       <c r="C118">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="D118">
-        <v>92.31999999999999</v>
+        <v>91.95999999999999</v>
       </c>
       <c r="E118">
         <v>117.56</v>
@@ -5844,10 +8070,10 @@
         <v>129</v>
       </c>
       <c r="C119">
-        <v>221</v>
+        <v>244</v>
       </c>
       <c r="D119">
-        <v>225.24</v>
+        <v>227.68</v>
       </c>
       <c r="E119">
         <v>117.72</v>
@@ -5861,10 +8087,10 @@
         <v>130</v>
       </c>
       <c r="C120">
-        <v>203</v>
+        <v>269</v>
       </c>
       <c r="D120">
-        <v>215.19</v>
+        <v>220.11</v>
       </c>
       <c r="E120">
         <v>117.88</v>
@@ -5878,10 +8104,10 @@
         <v>131</v>
       </c>
       <c r="C121">
-        <v>289</v>
+        <v>269</v>
       </c>
       <c r="D121">
-        <v>222.41</v>
+        <v>213.93</v>
       </c>
       <c r="E121">
         <v>118.04</v>
@@ -5895,7 +8121,7 @@
         <v>132</v>
       </c>
       <c r="C122">
-        <v>188</v>
+        <v>200</v>
       </c>
       <c r="D122">
         <v>235.19</v>
@@ -5912,10 +8138,10 @@
         <v>133</v>
       </c>
       <c r="C123">
-        <v>247</v>
+        <v>232</v>
       </c>
       <c r="D123">
-        <v>241.11</v>
+        <v>241.41</v>
       </c>
       <c r="E123">
         <v>118.37</v>
@@ -5929,10 +8155,10 @@
         <v>134</v>
       </c>
       <c r="C124">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="D124">
-        <v>111.61</v>
+        <v>112.11</v>
       </c>
       <c r="E124">
         <v>118.53</v>
@@ -5946,10 +8172,10 @@
         <v>135</v>
       </c>
       <c r="C125">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="D125">
-        <v>90.92</v>
+        <v>90.65000000000001</v>
       </c>
       <c r="E125">
         <v>118.69</v>
@@ -5963,10 +8189,10 @@
         <v>136</v>
       </c>
       <c r="C126">
-        <v>252</v>
+        <v>187</v>
       </c>
       <c r="D126">
-        <v>226.27</v>
+        <v>226.12</v>
       </c>
       <c r="E126">
         <v>118.85</v>
@@ -5980,10 +8206,10 @@
         <v>137</v>
       </c>
       <c r="C127">
-        <v>210</v>
+        <v>244</v>
       </c>
       <c r="D127">
-        <v>215</v>
+        <v>220.96</v>
       </c>
       <c r="E127">
         <v>119.01</v>
@@ -5997,10 +8223,10 @@
         <v>138</v>
       </c>
       <c r="C128">
-        <v>255</v>
+        <v>207</v>
       </c>
       <c r="D128">
-        <v>223.57</v>
+        <v>213.68</v>
       </c>
       <c r="E128">
         <v>119.17</v>
@@ -6014,10 +8240,10 @@
         <v>139</v>
       </c>
       <c r="C129">
-        <v>248</v>
+        <v>218</v>
       </c>
       <c r="D129">
-        <v>235.67</v>
+        <v>234.56</v>
       </c>
       <c r="E129">
         <v>119.34</v>
@@ -6031,10 +8257,10 @@
         <v>140</v>
       </c>
       <c r="C130">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D130">
-        <v>239.36</v>
+        <v>239.61</v>
       </c>
       <c r="E130">
         <v>119.5</v>
@@ -6048,10 +8274,10 @@
         <v>141</v>
       </c>
       <c r="C131">
-        <v>101</v>
+        <v>93</v>
       </c>
       <c r="D131">
-        <v>111.24</v>
+        <v>111.45</v>
       </c>
       <c r="E131">
         <v>119.66</v>
@@ -6065,10 +8291,10 @@
         <v>142</v>
       </c>
       <c r="C132">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="D132">
-        <v>91.41</v>
+        <v>91.19</v>
       </c>
       <c r="E132">
         <v>119.82</v>
@@ -6082,10 +8308,10 @@
         <v>143</v>
       </c>
       <c r="C133">
-        <v>233</v>
+        <v>249</v>
       </c>
       <c r="D133">
-        <v>226.52</v>
+        <v>226.96</v>
       </c>
       <c r="E133">
         <v>119.98</v>
@@ -6099,10 +8325,10 @@
         <v>144</v>
       </c>
       <c r="C134">
-        <v>208</v>
+        <v>183</v>
       </c>
       <c r="D134">
-        <v>214.76</v>
+        <v>219.66</v>
       </c>
       <c r="E134">
         <v>120.14</v>
@@ -6116,10 +8342,10 @@
         <v>145</v>
       </c>
       <c r="C135">
-        <v>262</v>
+        <v>243</v>
       </c>
       <c r="D135">
-        <v>224.9</v>
+        <v>214.69</v>
       </c>
       <c r="E135">
         <v>120.3</v>
@@ -6133,10 +8359,10 @@
         <v>146</v>
       </c>
       <c r="C136">
-        <v>263</v>
+        <v>244</v>
       </c>
       <c r="D136">
-        <v>236.64</v>
+        <v>234.89</v>
       </c>
       <c r="E136">
         <v>120.47</v>
@@ -6150,10 +8376,10 @@
         <v>147</v>
       </c>
       <c r="C137">
-        <v>208</v>
+        <v>221</v>
       </c>
       <c r="D137">
-        <v>238.28</v>
+        <v>238.97</v>
       </c>
       <c r="E137">
         <v>120.63</v>
@@ -6167,10 +8393,10 @@
         <v>148</v>
       </c>
       <c r="C138">
-        <v>136</v>
+        <v>154</v>
       </c>
       <c r="D138">
-        <v>112.07</v>
+        <v>112.87</v>
       </c>
       <c r="E138">
         <v>120.79</v>
@@ -6184,10 +8410,10 @@
         <v>149</v>
       </c>
       <c r="C139">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="D139">
-        <v>90.54000000000001</v>
+        <v>90.5</v>
       </c>
       <c r="E139">
         <v>120.95</v>
@@ -6201,10 +8427,10 @@
         <v>150</v>
       </c>
       <c r="C140">
-        <v>193</v>
+        <v>201</v>
       </c>
       <c r="D140">
-        <v>225.32</v>
+        <v>226.04</v>
       </c>
       <c r="E140">
         <v>121.11</v>
@@ -6218,10 +8444,10 @@
         <v>151</v>
       </c>
       <c r="C141">
-        <v>185</v>
+        <v>195</v>
       </c>
       <c r="D141">
-        <v>213.77</v>
+        <v>218.83</v>
       </c>
       <c r="E141">
         <v>121.27</v>
@@ -6235,10 +8461,10 @@
         <v>152</v>
       </c>
       <c r="C142">
-        <v>273</v>
+        <v>262</v>
       </c>
       <c r="D142">
-        <v>226.5</v>
+        <v>216.27</v>
       </c>
       <c r="E142">
         <v>121.43</v>
@@ -6252,10 +8478,10 @@
         <v>153</v>
       </c>
       <c r="C143">
-        <v>203</v>
+        <v>234</v>
       </c>
       <c r="D143">
-        <v>235.48</v>
+        <v>234.86</v>
       </c>
       <c r="E143">
         <v>121.6</v>
@@ -6269,10 +8495,10 @@
         <v>154</v>
       </c>
       <c r="C144">
-        <v>237</v>
+        <v>228</v>
       </c>
       <c r="D144">
-        <v>238.23</v>
+        <v>238.6</v>
       </c>
       <c r="E144">
         <v>121.76</v>
@@ -6286,10 +8512,10 @@
         <v>155</v>
       </c>
       <c r="C145">
-        <v>142</v>
+        <v>150</v>
       </c>
       <c r="D145">
-        <v>113.03</v>
+        <v>114.06</v>
       </c>
       <c r="E145">
         <v>121.92</v>
@@ -6303,10 +8529,10 @@
         <v>156</v>
       </c>
       <c r="C146">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="D146">
-        <v>90.90000000000001</v>
+        <v>91.06999999999999</v>
       </c>
       <c r="E146">
         <v>122.08</v>
@@ -6323,7 +8549,7 @@
         <v>212</v>
       </c>
       <c r="D147">
-        <v>213.71</v>
+        <v>218.61</v>
       </c>
       <c r="E147">
         <v>122.4</v>
@@ -6337,10 +8563,10 @@
         <v>158</v>
       </c>
       <c r="C148">
-        <v>192</v>
+        <v>178</v>
       </c>
       <c r="D148">
-        <v>225.39</v>
+        <v>215.03</v>
       </c>
       <c r="E148">
         <v>122.57</v>
@@ -6354,10 +8580,10 @@
         <v>159</v>
       </c>
       <c r="C149">
-        <v>206</v>
+        <v>233</v>
       </c>
       <c r="D149">
-        <v>234.5</v>
+        <v>234.8</v>
       </c>
       <c r="E149">
         <v>122.73</v>
@@ -6371,10 +8597,10 @@
         <v>160</v>
       </c>
       <c r="C150">
-        <v>207</v>
+        <v>216</v>
       </c>
       <c r="D150">
-        <v>237.23</v>
+        <v>237.87</v>
       </c>
       <c r="E150">
         <v>122.89</v>
@@ -6388,10 +8614,10 @@
         <v>161</v>
       </c>
       <c r="C151">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="D151">
-        <v>113.31</v>
+        <v>114.25</v>
       </c>
       <c r="E151">
         <v>123.05</v>
@@ -6405,10 +8631,10 @@
         <v>162</v>
       </c>
       <c r="C152">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D152">
-        <v>90.09999999999999</v>
+        <v>90.3</v>
       </c>
       <c r="E152">
         <v>123.21</v>
@@ -6422,13 +8648,1815 @@
         <v>163</v>
       </c>
       <c r="C153">
-        <v>72</v>
+        <v>206</v>
       </c>
       <c r="D153">
-        <v>220.03</v>
+        <v>225.34</v>
       </c>
       <c r="E153">
         <v>123.37</v>
+      </c>
+    </row>
+    <row r="154" spans="1:5">
+      <c r="A154" t="s">
+        <v>7</v>
+      </c>
+      <c r="B154" t="s">
+        <v>164</v>
+      </c>
+      <c r="C154">
+        <v>234</v>
+      </c>
+      <c r="D154">
+        <v>219.09</v>
+      </c>
+      <c r="E154">
+        <v>123.53</v>
+      </c>
+    </row>
+    <row r="155" spans="1:5">
+      <c r="A155" t="s">
+        <v>9</v>
+      </c>
+      <c r="B155" t="s">
+        <v>165</v>
+      </c>
+      <c r="C155">
+        <v>241</v>
+      </c>
+      <c r="D155">
+        <v>215.84</v>
+      </c>
+      <c r="E155">
+        <v>123.7</v>
+      </c>
+    </row>
+    <row r="156" spans="1:5">
+      <c r="A156" t="s">
+        <v>11</v>
+      </c>
+      <c r="B156" t="s">
+        <v>166</v>
+      </c>
+      <c r="C156">
+        <v>240</v>
+      </c>
+      <c r="D156">
+        <v>234.97</v>
+      </c>
+      <c r="E156">
+        <v>123.86</v>
+      </c>
+    </row>
+    <row r="157" spans="1:5">
+      <c r="A157" t="s">
+        <v>13</v>
+      </c>
+      <c r="B157" t="s">
+        <v>167</v>
+      </c>
+      <c r="C157">
+        <v>257</v>
+      </c>
+      <c r="D157">
+        <v>238.47</v>
+      </c>
+      <c r="E157">
+        <v>124.02</v>
+      </c>
+    </row>
+    <row r="158" spans="1:5">
+      <c r="A158" t="s">
+        <v>15</v>
+      </c>
+      <c r="B158" t="s">
+        <v>168</v>
+      </c>
+      <c r="C158">
+        <v>133</v>
+      </c>
+      <c r="D158">
+        <v>114.82</v>
+      </c>
+      <c r="E158">
+        <v>124.18</v>
+      </c>
+    </row>
+    <row r="159" spans="1:5">
+      <c r="A159" t="s">
+        <v>17</v>
+      </c>
+      <c r="B159" t="s">
+        <v>169</v>
+      </c>
+      <c r="C159">
+        <v>94</v>
+      </c>
+      <c r="D159">
+        <v>90.42</v>
+      </c>
+      <c r="E159">
+        <v>124.34</v>
+      </c>
+    </row>
+    <row r="160" spans="1:5">
+      <c r="A160" t="s">
+        <v>5</v>
+      </c>
+      <c r="B160" t="s">
+        <v>170</v>
+      </c>
+      <c r="C160">
+        <v>306</v>
+      </c>
+      <c r="D160">
+        <v>228.03</v>
+      </c>
+      <c r="E160">
+        <v>124.5</v>
+      </c>
+    </row>
+    <row r="161" spans="1:5">
+      <c r="A161" t="s">
+        <v>7</v>
+      </c>
+      <c r="B161" t="s">
+        <v>171</v>
+      </c>
+      <c r="C161">
+        <v>251</v>
+      </c>
+      <c r="D161">
+        <v>220.06</v>
+      </c>
+      <c r="E161">
+        <v>124.66</v>
+      </c>
+    </row>
+    <row r="162" spans="1:5">
+      <c r="A162" t="s">
+        <v>9</v>
+      </c>
+      <c r="B162" t="s">
+        <v>172</v>
+      </c>
+      <c r="C162">
+        <v>280</v>
+      </c>
+      <c r="D162">
+        <v>217.79</v>
+      </c>
+      <c r="E162">
+        <v>124.83</v>
+      </c>
+    </row>
+    <row r="163" spans="1:5">
+      <c r="A163" t="s">
+        <v>11</v>
+      </c>
+      <c r="B163" t="s">
+        <v>173</v>
+      </c>
+      <c r="C163">
+        <v>238</v>
+      </c>
+      <c r="D163">
+        <v>235.06</v>
+      </c>
+      <c r="E163">
+        <v>124.99</v>
+      </c>
+    </row>
+    <row r="164" spans="1:5">
+      <c r="A164" t="s">
+        <v>13</v>
+      </c>
+      <c r="B164" t="s">
+        <v>174</v>
+      </c>
+      <c r="C164">
+        <v>256</v>
+      </c>
+      <c r="D164">
+        <v>239</v>
+      </c>
+      <c r="E164">
+        <v>125.15</v>
+      </c>
+    </row>
+    <row r="165" spans="1:5">
+      <c r="A165" t="s">
+        <v>15</v>
+      </c>
+      <c r="B165" t="s">
+        <v>175</v>
+      </c>
+      <c r="C165">
+        <v>101</v>
+      </c>
+      <c r="D165">
+        <v>114.41</v>
+      </c>
+      <c r="E165">
+        <v>125.31</v>
+      </c>
+    </row>
+    <row r="166" spans="1:5">
+      <c r="A166" t="s">
+        <v>17</v>
+      </c>
+      <c r="B166" t="s">
+        <v>176</v>
+      </c>
+      <c r="C166">
+        <v>75</v>
+      </c>
+      <c r="D166">
+        <v>89.94</v>
+      </c>
+      <c r="E166">
+        <v>125.47</v>
+      </c>
+    </row>
+    <row r="167" spans="1:5">
+      <c r="A167" t="s">
+        <v>5</v>
+      </c>
+      <c r="B167" t="s">
+        <v>177</v>
+      </c>
+      <c r="C167">
+        <v>198</v>
+      </c>
+      <c r="D167">
+        <v>227.06</v>
+      </c>
+      <c r="E167">
+        <v>125.63</v>
+      </c>
+    </row>
+    <row r="168" spans="1:5">
+      <c r="A168" t="s">
+        <v>7</v>
+      </c>
+      <c r="B168" t="s">
+        <v>178</v>
+      </c>
+      <c r="C168">
+        <v>167</v>
+      </c>
+      <c r="D168">
+        <v>218.5</v>
+      </c>
+      <c r="E168">
+        <v>125.79</v>
+      </c>
+    </row>
+    <row r="169" spans="1:5">
+      <c r="A169" t="s">
+        <v>9</v>
+      </c>
+      <c r="B169" t="s">
+        <v>179</v>
+      </c>
+      <c r="C169">
+        <v>265</v>
+      </c>
+      <c r="D169">
+        <v>219.18</v>
+      </c>
+      <c r="E169">
+        <v>125.96</v>
+      </c>
+    </row>
+    <row r="170" spans="1:5">
+      <c r="A170" t="s">
+        <v>11</v>
+      </c>
+      <c r="B170" t="s">
+        <v>180</v>
+      </c>
+      <c r="C170">
+        <v>221</v>
+      </c>
+      <c r="D170">
+        <v>234.64</v>
+      </c>
+      <c r="E170">
+        <v>126.12</v>
+      </c>
+    </row>
+    <row r="171" spans="1:5">
+      <c r="A171" t="s">
+        <v>13</v>
+      </c>
+      <c r="B171" t="s">
+        <v>181</v>
+      </c>
+      <c r="C171">
+        <v>220</v>
+      </c>
+      <c r="D171">
+        <v>238.44</v>
+      </c>
+      <c r="E171">
+        <v>126.28</v>
+      </c>
+    </row>
+    <row r="172" spans="1:5">
+      <c r="A172" t="s">
+        <v>15</v>
+      </c>
+      <c r="B172" t="s">
+        <v>182</v>
+      </c>
+      <c r="C172">
+        <v>175</v>
+      </c>
+      <c r="D172">
+        <v>116.14</v>
+      </c>
+      <c r="E172">
+        <v>126.44</v>
+      </c>
+    </row>
+    <row r="173" spans="1:5">
+      <c r="A173" t="s">
+        <v>17</v>
+      </c>
+      <c r="B173" t="s">
+        <v>183</v>
+      </c>
+      <c r="C173">
+        <v>97</v>
+      </c>
+      <c r="D173">
+        <v>90.15000000000001</v>
+      </c>
+      <c r="E173">
+        <v>126.6</v>
+      </c>
+    </row>
+    <row r="174" spans="1:5">
+      <c r="A174" t="s">
+        <v>5</v>
+      </c>
+      <c r="B174" t="s">
+        <v>184</v>
+      </c>
+      <c r="C174">
+        <v>300</v>
+      </c>
+      <c r="D174">
+        <v>229.34</v>
+      </c>
+      <c r="E174">
+        <v>126.76</v>
+      </c>
+    </row>
+    <row r="175" spans="1:5">
+      <c r="A175" t="s">
+        <v>7</v>
+      </c>
+      <c r="B175" t="s">
+        <v>185</v>
+      </c>
+      <c r="C175">
+        <v>195</v>
+      </c>
+      <c r="D175">
+        <v>217.83</v>
+      </c>
+      <c r="E175">
+        <v>126.92</v>
+      </c>
+    </row>
+    <row r="176" spans="1:5">
+      <c r="A176" t="s">
+        <v>9</v>
+      </c>
+      <c r="B176" t="s">
+        <v>186</v>
+      </c>
+      <c r="C176">
+        <v>276</v>
+      </c>
+      <c r="D176">
+        <v>220.8</v>
+      </c>
+      <c r="E176">
+        <v>127.09</v>
+      </c>
+    </row>
+    <row r="177" spans="1:5">
+      <c r="A177" t="s">
+        <v>11</v>
+      </c>
+      <c r="B177" t="s">
+        <v>187</v>
+      </c>
+      <c r="C177">
+        <v>298</v>
+      </c>
+      <c r="D177">
+        <v>236.5</v>
+      </c>
+      <c r="E177">
+        <v>127.25</v>
+      </c>
+    </row>
+    <row r="178" spans="1:5">
+      <c r="A178" t="s">
+        <v>13</v>
+      </c>
+      <c r="B178" t="s">
+        <v>188</v>
+      </c>
+      <c r="C178">
+        <v>272</v>
+      </c>
+      <c r="D178">
+        <v>239.4</v>
+      </c>
+      <c r="E178">
+        <v>127.41</v>
+      </c>
+    </row>
+    <row r="179" spans="1:5">
+      <c r="A179" t="s">
+        <v>15</v>
+      </c>
+      <c r="B179" t="s">
+        <v>189</v>
+      </c>
+      <c r="C179">
+        <v>167</v>
+      </c>
+      <c r="D179">
+        <v>117.56</v>
+      </c>
+      <c r="E179">
+        <v>127.57</v>
+      </c>
+    </row>
+    <row r="180" spans="1:5">
+      <c r="A180" t="s">
+        <v>17</v>
+      </c>
+      <c r="B180" t="s">
+        <v>190</v>
+      </c>
+      <c r="C180">
+        <v>104</v>
+      </c>
+      <c r="D180">
+        <v>90.56</v>
+      </c>
+      <c r="E180">
+        <v>127.73</v>
+      </c>
+    </row>
+    <row r="181" spans="1:5">
+      <c r="A181" t="s">
+        <v>5</v>
+      </c>
+      <c r="B181" t="s">
+        <v>191</v>
+      </c>
+      <c r="C181">
+        <v>240</v>
+      </c>
+      <c r="D181">
+        <v>229.67</v>
+      </c>
+      <c r="E181">
+        <v>127.89</v>
+      </c>
+    </row>
+    <row r="182" spans="1:5">
+      <c r="A182" t="s">
+        <v>9</v>
+      </c>
+      <c r="B182" t="s">
+        <v>192</v>
+      </c>
+      <c r="C182">
+        <v>238</v>
+      </c>
+      <c r="D182">
+        <v>221.28</v>
+      </c>
+      <c r="E182">
+        <v>128.22</v>
+      </c>
+    </row>
+    <row r="183" spans="1:5">
+      <c r="A183" t="s">
+        <v>11</v>
+      </c>
+      <c r="B183" t="s">
+        <v>193</v>
+      </c>
+      <c r="C183">
+        <v>267</v>
+      </c>
+      <c r="D183">
+        <v>237.37</v>
+      </c>
+      <c r="E183">
+        <v>128.38</v>
+      </c>
+    </row>
+    <row r="184" spans="1:5">
+      <c r="A184" t="s">
+        <v>13</v>
+      </c>
+      <c r="B184" t="s">
+        <v>194</v>
+      </c>
+      <c r="C184">
+        <v>259</v>
+      </c>
+      <c r="D184">
+        <v>239.94</v>
+      </c>
+      <c r="E184">
+        <v>128.54</v>
+      </c>
+    </row>
+    <row r="185" spans="1:5">
+      <c r="A185" t="s">
+        <v>15</v>
+      </c>
+      <c r="B185" t="s">
+        <v>195</v>
+      </c>
+      <c r="C185">
+        <v>143</v>
+      </c>
+      <c r="D185">
+        <v>118.24</v>
+      </c>
+      <c r="E185">
+        <v>128.7</v>
+      </c>
+    </row>
+    <row r="186" spans="1:5">
+      <c r="A186" t="s">
+        <v>17</v>
+      </c>
+      <c r="B186" t="s">
+        <v>196</v>
+      </c>
+      <c r="C186">
+        <v>106</v>
+      </c>
+      <c r="D186">
+        <v>91</v>
+      </c>
+      <c r="E186">
+        <v>128.86</v>
+      </c>
+    </row>
+    <row r="187" spans="1:5">
+      <c r="A187" t="s">
+        <v>5</v>
+      </c>
+      <c r="B187" t="s">
+        <v>197</v>
+      </c>
+      <c r="C187">
+        <v>282</v>
+      </c>
+      <c r="D187">
+        <v>231.21</v>
+      </c>
+      <c r="E187">
+        <v>129.02</v>
+      </c>
+    </row>
+    <row r="188" spans="1:5">
+      <c r="A188" t="s">
+        <v>7</v>
+      </c>
+      <c r="B188" t="s">
+        <v>198</v>
+      </c>
+      <c r="C188">
+        <v>261</v>
+      </c>
+      <c r="D188">
+        <v>219.03</v>
+      </c>
+      <c r="E188">
+        <v>129.18</v>
+      </c>
+    </row>
+    <row r="189" spans="1:5">
+      <c r="A189" t="s">
+        <v>9</v>
+      </c>
+      <c r="B189" t="s">
+        <v>199</v>
+      </c>
+      <c r="C189">
+        <v>358</v>
+      </c>
+      <c r="D189">
+        <v>224.97</v>
+      </c>
+      <c r="E189">
+        <v>129.35</v>
+      </c>
+    </row>
+    <row r="190" spans="1:5">
+      <c r="A190" t="s">
+        <v>11</v>
+      </c>
+      <c r="B190" t="s">
+        <v>200</v>
+      </c>
+      <c r="C190">
+        <v>208</v>
+      </c>
+      <c r="D190">
+        <v>236.56</v>
+      </c>
+      <c r="E190">
+        <v>129.51</v>
+      </c>
+    </row>
+    <row r="191" spans="1:5">
+      <c r="A191" t="s">
+        <v>13</v>
+      </c>
+      <c r="B191" t="s">
+        <v>201</v>
+      </c>
+      <c r="C191">
+        <v>218</v>
+      </c>
+      <c r="D191">
+        <v>239.35</v>
+      </c>
+      <c r="E191">
+        <v>129.67</v>
+      </c>
+    </row>
+    <row r="192" spans="1:5">
+      <c r="A192" t="s">
+        <v>15</v>
+      </c>
+      <c r="B192" t="s">
+        <v>202</v>
+      </c>
+      <c r="C192">
+        <v>119</v>
+      </c>
+      <c r="D192">
+        <v>118.26</v>
+      </c>
+      <c r="E192">
+        <v>129.83</v>
+      </c>
+    </row>
+    <row r="193" spans="1:5">
+      <c r="A193" t="s">
+        <v>17</v>
+      </c>
+      <c r="B193" t="s">
+        <v>203</v>
+      </c>
+      <c r="C193">
+        <v>100</v>
+      </c>
+      <c r="D193">
+        <v>91.25</v>
+      </c>
+      <c r="E193">
+        <v>129.99</v>
+      </c>
+    </row>
+    <row r="194" spans="1:5">
+      <c r="A194" t="s">
+        <v>5</v>
+      </c>
+      <c r="B194" t="s">
+        <v>204</v>
+      </c>
+      <c r="C194">
+        <v>250</v>
+      </c>
+      <c r="D194">
+        <v>231.74</v>
+      </c>
+      <c r="E194">
+        <v>130.15</v>
+      </c>
+    </row>
+    <row r="195" spans="1:5">
+      <c r="A195" t="s">
+        <v>7</v>
+      </c>
+      <c r="B195" t="s">
+        <v>205</v>
+      </c>
+      <c r="C195">
+        <v>232</v>
+      </c>
+      <c r="D195">
+        <v>219.38</v>
+      </c>
+      <c r="E195">
+        <v>130.31</v>
+      </c>
+    </row>
+    <row r="196" spans="1:5">
+      <c r="A196" t="s">
+        <v>9</v>
+      </c>
+      <c r="B196" t="s">
+        <v>206</v>
+      </c>
+      <c r="C196">
+        <v>342</v>
+      </c>
+      <c r="D196">
+        <v>228.05</v>
+      </c>
+      <c r="E196">
+        <v>130.48</v>
+      </c>
+    </row>
+    <row r="197" spans="1:5">
+      <c r="A197" t="s">
+        <v>11</v>
+      </c>
+      <c r="B197" t="s">
+        <v>207</v>
+      </c>
+      <c r="C197">
+        <v>237</v>
+      </c>
+      <c r="D197">
+        <v>236.57</v>
+      </c>
+      <c r="E197">
+        <v>130.64</v>
+      </c>
+    </row>
+    <row r="198" spans="1:5">
+      <c r="A198" t="s">
+        <v>13</v>
+      </c>
+      <c r="B198" t="s">
+        <v>208</v>
+      </c>
+      <c r="C198">
+        <v>196</v>
+      </c>
+      <c r="D198">
+        <v>238.21</v>
+      </c>
+      <c r="E198">
+        <v>130.8</v>
+      </c>
+    </row>
+    <row r="199" spans="1:5">
+      <c r="A199" t="s">
+        <v>15</v>
+      </c>
+      <c r="B199" t="s">
+        <v>209</v>
+      </c>
+      <c r="C199">
+        <v>184</v>
+      </c>
+      <c r="D199">
+        <v>119.95</v>
+      </c>
+      <c r="E199">
+        <v>130.96</v>
+      </c>
+    </row>
+    <row r="200" spans="1:5">
+      <c r="A200" t="s">
+        <v>17</v>
+      </c>
+      <c r="B200" t="s">
+        <v>210</v>
+      </c>
+      <c r="C200">
+        <v>127</v>
+      </c>
+      <c r="D200">
+        <v>92.22</v>
+      </c>
+      <c r="E200">
+        <v>131.12</v>
+      </c>
+    </row>
+    <row r="201" spans="1:5">
+      <c r="A201" t="s">
+        <v>5</v>
+      </c>
+      <c r="B201" t="s">
+        <v>211</v>
+      </c>
+      <c r="C201">
+        <v>330</v>
+      </c>
+      <c r="D201">
+        <v>234.47</v>
+      </c>
+      <c r="E201">
+        <v>131.28</v>
+      </c>
+    </row>
+    <row r="202" spans="1:5">
+      <c r="A202" t="s">
+        <v>7</v>
+      </c>
+      <c r="B202" t="s">
+        <v>212</v>
+      </c>
+      <c r="C202">
+        <v>229</v>
+      </c>
+      <c r="D202">
+        <v>219.63</v>
+      </c>
+      <c r="E202">
+        <v>131.44</v>
+      </c>
+    </row>
+    <row r="203" spans="1:5">
+      <c r="A203" t="s">
+        <v>9</v>
+      </c>
+      <c r="B203" t="s">
+        <v>213</v>
+      </c>
+      <c r="C203">
+        <v>278</v>
+      </c>
+      <c r="D203">
+        <v>229.33</v>
+      </c>
+      <c r="E203">
+        <v>131.61</v>
+      </c>
+    </row>
+    <row r="204" spans="1:5">
+      <c r="A204" t="s">
+        <v>11</v>
+      </c>
+      <c r="B204" t="s">
+        <v>214</v>
+      </c>
+      <c r="C204">
+        <v>278</v>
+      </c>
+      <c r="D204">
+        <v>237.66</v>
+      </c>
+      <c r="E204">
+        <v>131.77</v>
+      </c>
+    </row>
+    <row r="205" spans="1:5">
+      <c r="A205" t="s">
+        <v>13</v>
+      </c>
+      <c r="B205" t="s">
+        <v>215</v>
+      </c>
+      <c r="C205">
+        <v>387</v>
+      </c>
+      <c r="D205">
+        <v>242.03</v>
+      </c>
+      <c r="E205">
+        <v>131.93</v>
+      </c>
+    </row>
+    <row r="206" spans="1:5">
+      <c r="A206" t="s">
+        <v>15</v>
+      </c>
+      <c r="B206" t="s">
+        <v>216</v>
+      </c>
+      <c r="C206">
+        <v>183</v>
+      </c>
+      <c r="D206">
+        <v>121.53</v>
+      </c>
+      <c r="E206">
+        <v>132.09</v>
+      </c>
+    </row>
+    <row r="207" spans="1:5">
+      <c r="A207" t="s">
+        <v>17</v>
+      </c>
+      <c r="B207" t="s">
+        <v>217</v>
+      </c>
+      <c r="C207">
+        <v>139</v>
+      </c>
+      <c r="D207">
+        <v>93.45</v>
+      </c>
+      <c r="E207">
+        <v>132.25</v>
+      </c>
+    </row>
+    <row r="208" spans="1:5">
+      <c r="A208" t="s">
+        <v>5</v>
+      </c>
+      <c r="B208" t="s">
+        <v>218</v>
+      </c>
+      <c r="C208">
+        <v>286</v>
+      </c>
+      <c r="D208">
+        <v>235.86</v>
+      </c>
+      <c r="E208">
+        <v>132.41</v>
+      </c>
+    </row>
+    <row r="209" spans="1:5">
+      <c r="A209" t="s">
+        <v>7</v>
+      </c>
+      <c r="B209" t="s">
+        <v>219</v>
+      </c>
+      <c r="C209">
+        <v>387</v>
+      </c>
+      <c r="D209">
+        <v>223.92</v>
+      </c>
+      <c r="E209">
+        <v>132.57</v>
+      </c>
+    </row>
+    <row r="210" spans="1:5">
+      <c r="A210" t="s">
+        <v>9</v>
+      </c>
+      <c r="B210" t="s">
+        <v>220</v>
+      </c>
+      <c r="C210">
+        <v>361</v>
+      </c>
+      <c r="D210">
+        <v>232.62</v>
+      </c>
+      <c r="E210">
+        <v>132.74</v>
+      </c>
+    </row>
+    <row r="211" spans="1:5">
+      <c r="A211" t="s">
+        <v>11</v>
+      </c>
+      <c r="B211" t="s">
+        <v>221</v>
+      </c>
+      <c r="C211">
+        <v>333</v>
+      </c>
+      <c r="D211">
+        <v>240.1</v>
+      </c>
+      <c r="E211">
+        <v>132.9</v>
+      </c>
+    </row>
+    <row r="212" spans="1:5">
+      <c r="A212" t="s">
+        <v>13</v>
+      </c>
+      <c r="B212" t="s">
+        <v>222</v>
+      </c>
+      <c r="C212">
+        <v>385</v>
+      </c>
+      <c r="D212">
+        <v>245.6</v>
+      </c>
+      <c r="E212">
+        <v>133.06</v>
+      </c>
+    </row>
+    <row r="213" spans="1:5">
+      <c r="A213" t="s">
+        <v>15</v>
+      </c>
+      <c r="B213" t="s">
+        <v>223</v>
+      </c>
+      <c r="C213">
+        <v>134</v>
+      </c>
+      <c r="D213">
+        <v>121.83</v>
+      </c>
+      <c r="E213">
+        <v>133.22</v>
+      </c>
+    </row>
+    <row r="214" spans="1:5">
+      <c r="A214" t="s">
+        <v>17</v>
+      </c>
+      <c r="B214" t="s">
+        <v>224</v>
+      </c>
+      <c r="C214">
+        <v>138</v>
+      </c>
+      <c r="D214">
+        <v>94.59</v>
+      </c>
+      <c r="E214">
+        <v>133.38</v>
+      </c>
+    </row>
+    <row r="215" spans="1:5">
+      <c r="A215" t="s">
+        <v>5</v>
+      </c>
+      <c r="B215" t="s">
+        <v>225</v>
+      </c>
+      <c r="C215">
+        <v>303</v>
+      </c>
+      <c r="D215">
+        <v>237.63</v>
+      </c>
+      <c r="E215">
+        <v>133.54</v>
+      </c>
+    </row>
+    <row r="216" spans="1:5">
+      <c r="A216" t="s">
+        <v>7</v>
+      </c>
+      <c r="B216" t="s">
+        <v>226</v>
+      </c>
+      <c r="C216">
+        <v>247</v>
+      </c>
+      <c r="D216">
+        <v>224.5</v>
+      </c>
+      <c r="E216">
+        <v>133.7</v>
+      </c>
+    </row>
+    <row r="217" spans="1:5">
+      <c r="A217" t="s">
+        <v>9</v>
+      </c>
+      <c r="B217" t="s">
+        <v>227</v>
+      </c>
+      <c r="C217">
+        <v>316</v>
+      </c>
+      <c r="D217">
+        <v>234.66</v>
+      </c>
+      <c r="E217">
+        <v>133.87</v>
+      </c>
+    </row>
+    <row r="218" spans="1:5">
+      <c r="A218" t="s">
+        <v>11</v>
+      </c>
+      <c r="B218" t="s">
+        <v>228</v>
+      </c>
+      <c r="C218">
+        <v>377</v>
+      </c>
+      <c r="D218">
+        <v>243.53</v>
+      </c>
+      <c r="E218">
+        <v>134.03</v>
+      </c>
+    </row>
+    <row r="219" spans="1:5">
+      <c r="A219" t="s">
+        <v>13</v>
+      </c>
+      <c r="B219" t="s">
+        <v>229</v>
+      </c>
+      <c r="C219">
+        <v>337</v>
+      </c>
+      <c r="D219">
+        <v>247.83</v>
+      </c>
+      <c r="E219">
+        <v>134.19</v>
+      </c>
+    </row>
+    <row r="220" spans="1:5">
+      <c r="A220" t="s">
+        <v>15</v>
+      </c>
+      <c r="B220" t="s">
+        <v>230</v>
+      </c>
+      <c r="C220">
+        <v>92</v>
+      </c>
+      <c r="D220">
+        <v>121.12</v>
+      </c>
+      <c r="E220">
+        <v>134.35</v>
+      </c>
+    </row>
+    <row r="221" spans="1:5">
+      <c r="A221" t="s">
+        <v>17</v>
+      </c>
+      <c r="B221" t="s">
+        <v>231</v>
+      </c>
+      <c r="C221">
+        <v>95</v>
+      </c>
+      <c r="D221">
+        <v>94.59999999999999</v>
+      </c>
+      <c r="E221">
+        <v>134.51</v>
+      </c>
+    </row>
+    <row r="222" spans="1:5">
+      <c r="A222" t="s">
+        <v>5</v>
+      </c>
+      <c r="B222" t="s">
+        <v>232</v>
+      </c>
+      <c r="C222">
+        <v>290</v>
+      </c>
+      <c r="D222">
+        <v>238.97</v>
+      </c>
+      <c r="E222">
+        <v>134.67</v>
+      </c>
+    </row>
+    <row r="223" spans="1:5">
+      <c r="A223" t="s">
+        <v>7</v>
+      </c>
+      <c r="B223" t="s">
+        <v>233</v>
+      </c>
+      <c r="C223">
+        <v>269</v>
+      </c>
+      <c r="D223">
+        <v>225.59</v>
+      </c>
+      <c r="E223">
+        <v>134.84</v>
+      </c>
+    </row>
+    <row r="224" spans="1:5">
+      <c r="A224" t="s">
+        <v>9</v>
+      </c>
+      <c r="B224" t="s">
+        <v>234</v>
+      </c>
+      <c r="C224">
+        <v>268</v>
+      </c>
+      <c r="D224">
+        <v>235.45</v>
+      </c>
+      <c r="E224">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="225" spans="1:5">
+      <c r="A225" t="s">
+        <v>11</v>
+      </c>
+      <c r="B225" t="s">
+        <v>235</v>
+      </c>
+      <c r="C225">
+        <v>253</v>
+      </c>
+      <c r="D225">
+        <v>243.76</v>
+      </c>
+      <c r="E225">
+        <v>135.16</v>
+      </c>
+    </row>
+    <row r="226" spans="1:5">
+      <c r="A226" t="s">
+        <v>13</v>
+      </c>
+      <c r="B226" t="s">
+        <v>236</v>
+      </c>
+      <c r="C226">
+        <v>251</v>
+      </c>
+      <c r="D226">
+        <v>247.9</v>
+      </c>
+      <c r="E226">
+        <v>135.32</v>
+      </c>
+    </row>
+    <row r="227" spans="1:5">
+      <c r="A227" t="s">
+        <v>15</v>
+      </c>
+      <c r="B227" t="s">
+        <v>237</v>
+      </c>
+      <c r="C227">
+        <v>127</v>
+      </c>
+      <c r="D227">
+        <v>121.26</v>
+      </c>
+      <c r="E227">
+        <v>135.48</v>
+      </c>
+    </row>
+    <row r="228" spans="1:5">
+      <c r="A228" t="s">
+        <v>17</v>
+      </c>
+      <c r="B228" t="s">
+        <v>238</v>
+      </c>
+      <c r="C228">
+        <v>96</v>
+      </c>
+      <c r="D228">
+        <v>94.63</v>
+      </c>
+      <c r="E228">
+        <v>135.64</v>
+      </c>
+    </row>
+    <row r="229" spans="1:5">
+      <c r="A229" t="s">
+        <v>5</v>
+      </c>
+      <c r="B229" t="s">
+        <v>239</v>
+      </c>
+      <c r="C229">
+        <v>295</v>
+      </c>
+      <c r="D229">
+        <v>240.38</v>
+      </c>
+      <c r="E229">
+        <v>135.8</v>
+      </c>
+    </row>
+    <row r="230" spans="1:5">
+      <c r="A230" t="s">
+        <v>7</v>
+      </c>
+      <c r="B230" t="s">
+        <v>240</v>
+      </c>
+      <c r="C230">
+        <v>235</v>
+      </c>
+      <c r="D230">
+        <v>225.81</v>
+      </c>
+      <c r="E230">
+        <v>135.97</v>
+      </c>
+    </row>
+    <row r="231" spans="1:5">
+      <c r="A231" t="s">
+        <v>9</v>
+      </c>
+      <c r="B231" t="s">
+        <v>241</v>
+      </c>
+      <c r="C231">
+        <v>262</v>
+      </c>
+      <c r="D231">
+        <v>236.07</v>
+      </c>
+      <c r="E231">
+        <v>136.13</v>
+      </c>
+    </row>
+    <row r="232" spans="1:5">
+      <c r="A232" t="s">
+        <v>11</v>
+      </c>
+      <c r="B232" t="s">
+        <v>242</v>
+      </c>
+      <c r="C232">
+        <v>325</v>
+      </c>
+      <c r="D232">
+        <v>245.69</v>
+      </c>
+      <c r="E232">
+        <v>136.29</v>
+      </c>
+    </row>
+    <row r="233" spans="1:5">
+      <c r="A233" t="s">
+        <v>13</v>
+      </c>
+      <c r="B233" t="s">
+        <v>243</v>
+      </c>
+      <c r="C233">
+        <v>278</v>
+      </c>
+      <c r="D233">
+        <v>248.6</v>
+      </c>
+      <c r="E233">
+        <v>136.45</v>
+      </c>
+    </row>
+    <row r="234" spans="1:5">
+      <c r="A234" t="s">
+        <v>15</v>
+      </c>
+      <c r="B234" t="s">
+        <v>244</v>
+      </c>
+      <c r="C234">
+        <v>118</v>
+      </c>
+      <c r="D234">
+        <v>121.18</v>
+      </c>
+      <c r="E234">
+        <v>136.61</v>
+      </c>
+    </row>
+    <row r="235" spans="1:5">
+      <c r="A235" t="s">
+        <v>17</v>
+      </c>
+      <c r="B235" t="s">
+        <v>245</v>
+      </c>
+      <c r="C235">
+        <v>93</v>
+      </c>
+      <c r="D235">
+        <v>94.59999999999999</v>
+      </c>
+      <c r="E235">
+        <v>136.77</v>
+      </c>
+    </row>
+    <row r="236" spans="1:5">
+      <c r="A236" t="s">
+        <v>5</v>
+      </c>
+      <c r="B236" t="s">
+        <v>246</v>
+      </c>
+      <c r="C236">
+        <v>293</v>
+      </c>
+      <c r="D236">
+        <v>241.66</v>
+      </c>
+      <c r="E236">
+        <v>136.93</v>
+      </c>
+    </row>
+    <row r="237" spans="1:5">
+      <c r="A237" t="s">
+        <v>7</v>
+      </c>
+      <c r="B237" t="s">
+        <v>247</v>
+      </c>
+      <c r="C237">
+        <v>215</v>
+      </c>
+      <c r="D237">
+        <v>225.56</v>
+      </c>
+      <c r="E237">
+        <v>137.1</v>
+      </c>
+    </row>
+    <row r="238" spans="1:5">
+      <c r="A238" t="s">
+        <v>9</v>
+      </c>
+      <c r="B238" t="s">
+        <v>248</v>
+      </c>
+      <c r="C238">
+        <v>198</v>
+      </c>
+      <c r="D238">
+        <v>235.2</v>
+      </c>
+      <c r="E238">
+        <v>137.26</v>
+      </c>
+    </row>
+    <row r="239" spans="1:5">
+      <c r="A239" t="s">
+        <v>11</v>
+      </c>
+      <c r="B239" t="s">
+        <v>249</v>
+      </c>
+      <c r="C239">
+        <v>218</v>
+      </c>
+      <c r="D239">
+        <v>245.05</v>
+      </c>
+      <c r="E239">
+        <v>137.42</v>
+      </c>
+    </row>
+    <row r="240" spans="1:5">
+      <c r="A240" t="s">
+        <v>13</v>
+      </c>
+      <c r="B240" t="s">
+        <v>250</v>
+      </c>
+      <c r="C240">
+        <v>234</v>
+      </c>
+      <c r="D240">
+        <v>248.27</v>
+      </c>
+      <c r="E240">
+        <v>137.58</v>
+      </c>
+    </row>
+    <row r="241" spans="1:5">
+      <c r="A241" t="s">
+        <v>15</v>
+      </c>
+      <c r="B241" t="s">
+        <v>251</v>
+      </c>
+      <c r="C241">
+        <v>85</v>
+      </c>
+      <c r="D241">
+        <v>120.38</v>
+      </c>
+      <c r="E241">
+        <v>137.74</v>
+      </c>
+    </row>
+    <row r="242" spans="1:5">
+      <c r="A242" t="s">
+        <v>17</v>
+      </c>
+      <c r="B242" t="s">
+        <v>252</v>
+      </c>
+      <c r="C242">
+        <v>67</v>
+      </c>
+      <c r="D242">
+        <v>93.95</v>
+      </c>
+      <c r="E242">
+        <v>137.9</v>
+      </c>
+    </row>
+    <row r="243" spans="1:5">
+      <c r="A243" t="s">
+        <v>7</v>
+      </c>
+      <c r="B243" t="s">
+        <v>253</v>
+      </c>
+      <c r="C243">
+        <v>250</v>
+      </c>
+      <c r="D243">
+        <v>226.11</v>
+      </c>
+      <c r="E243">
+        <v>138.23</v>
+      </c>
+    </row>
+    <row r="244" spans="1:5">
+      <c r="A244" t="s">
+        <v>9</v>
+      </c>
+      <c r="B244" t="s">
+        <v>254</v>
+      </c>
+      <c r="C244">
+        <v>199</v>
+      </c>
+      <c r="D244">
+        <v>234.4</v>
+      </c>
+      <c r="E244">
+        <v>138.39</v>
+      </c>
+    </row>
+    <row r="245" spans="1:5">
+      <c r="A245" t="s">
+        <v>11</v>
+      </c>
+      <c r="B245" t="s">
+        <v>255</v>
+      </c>
+      <c r="C245">
+        <v>220</v>
+      </c>
+      <c r="D245">
+        <v>244.48</v>
+      </c>
+      <c r="E245">
+        <v>138.55</v>
+      </c>
+    </row>
+    <row r="246" spans="1:5">
+      <c r="A246" t="s">
+        <v>13</v>
+      </c>
+      <c r="B246" t="s">
+        <v>256</v>
+      </c>
+      <c r="C246">
+        <v>259</v>
+      </c>
+      <c r="D246">
+        <v>248.51</v>
+      </c>
+      <c r="E246">
+        <v>138.71</v>
+      </c>
+    </row>
+    <row r="247" spans="1:5">
+      <c r="A247" t="s">
+        <v>15</v>
+      </c>
+      <c r="B247" t="s">
+        <v>257</v>
+      </c>
+      <c r="C247">
+        <v>71</v>
+      </c>
+      <c r="D247">
+        <v>119.3</v>
+      </c>
+      <c r="E247">
+        <v>138.87</v>
+      </c>
+    </row>
+    <row r="248" spans="1:5">
+      <c r="A248" t="s">
+        <v>17</v>
+      </c>
+      <c r="B248" t="s">
+        <v>258</v>
+      </c>
+      <c r="C248">
+        <v>52</v>
+      </c>
+      <c r="D248">
+        <v>93</v>
+      </c>
+      <c r="E248">
+        <v>139.03</v>
+      </c>
+    </row>
+    <row r="249" spans="1:5">
+      <c r="A249" t="s">
+        <v>5</v>
+      </c>
+      <c r="B249" t="s">
+        <v>259</v>
+      </c>
+      <c r="C249">
+        <v>183</v>
+      </c>
+      <c r="D249">
+        <v>240.26</v>
+      </c>
+      <c r="E249">
+        <v>139.19</v>
+      </c>
+    </row>
+    <row r="250" spans="1:5">
+      <c r="A250" t="s">
+        <v>7</v>
+      </c>
+      <c r="B250" t="s">
+        <v>260</v>
+      </c>
+      <c r="C250">
+        <v>191</v>
+      </c>
+      <c r="D250">
+        <v>225.33</v>
+      </c>
+      <c r="E250">
+        <v>139.36</v>
+      </c>
+    </row>
+    <row r="251" spans="1:5">
+      <c r="A251" t="s">
+        <v>9</v>
+      </c>
+      <c r="B251" t="s">
+        <v>261</v>
+      </c>
+      <c r="C251">
+        <v>261</v>
+      </c>
+      <c r="D251">
+        <v>234.98</v>
+      </c>
+      <c r="E251">
+        <v>139.52</v>
+      </c>
+    </row>
+    <row r="252" spans="1:5">
+      <c r="A252" t="s">
+        <v>11</v>
+      </c>
+      <c r="B252" t="s">
+        <v>262</v>
+      </c>
+      <c r="C252">
+        <v>207</v>
+      </c>
+      <c r="D252">
+        <v>243.64</v>
+      </c>
+      <c r="E252">
+        <v>139.68</v>
+      </c>
+    </row>
+    <row r="253" spans="1:5">
+      <c r="A253" t="s">
+        <v>13</v>
+      </c>
+      <c r="B253" t="s">
+        <v>263</v>
+      </c>
+      <c r="C253">
+        <v>256</v>
+      </c>
+      <c r="D253">
+        <v>248.67</v>
+      </c>
+      <c r="E253">
+        <v>139.84</v>
+      </c>
+    </row>
+    <row r="254" spans="1:5">
+      <c r="A254" t="s">
+        <v>15</v>
+      </c>
+      <c r="B254" t="s">
+        <v>264</v>
+      </c>
+      <c r="C254">
+        <v>105</v>
+      </c>
+      <c r="D254">
+        <v>119</v>
+      </c>
+      <c r="E254">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="255" spans="1:5">
+      <c r="A255" t="s">
+        <v>17</v>
+      </c>
+      <c r="B255" t="s">
+        <v>265</v>
+      </c>
+      <c r="C255">
+        <v>115</v>
+      </c>
+      <c r="D255">
+        <v>93.48999999999999</v>
+      </c>
+      <c r="E255">
+        <v>140.16</v>
+      </c>
+    </row>
+    <row r="256" spans="1:5">
+      <c r="A256" t="s">
+        <v>5</v>
+      </c>
+      <c r="B256" t="s">
+        <v>266</v>
+      </c>
+      <c r="C256">
+        <v>187</v>
+      </c>
+      <c r="D256">
+        <v>239.02</v>
+      </c>
+      <c r="E256">
+        <v>140.32</v>
+      </c>
+    </row>
+    <row r="257" spans="1:5">
+      <c r="A257" t="s">
+        <v>7</v>
+      </c>
+      <c r="B257" t="s">
+        <v>267</v>
+      </c>
+      <c r="C257">
+        <v>226</v>
+      </c>
+      <c r="D257">
+        <v>225.35</v>
+      </c>
+      <c r="E257">
+        <v>140.49</v>
+      </c>
+    </row>
+    <row r="258" spans="1:5">
+      <c r="A258" t="s">
+        <v>9</v>
+      </c>
+      <c r="B258" t="s">
+        <v>268</v>
+      </c>
+      <c r="C258">
+        <v>197</v>
+      </c>
+      <c r="D258">
+        <v>234.17</v>
+      </c>
+      <c r="E258">
+        <v>140.65</v>
+      </c>
+    </row>
+    <row r="259" spans="1:5">
+      <c r="A259" t="s">
+        <v>11</v>
+      </c>
+      <c r="B259" t="s">
+        <v>269</v>
+      </c>
+      <c r="C259">
+        <v>132</v>
+      </c>
+      <c r="D259">
+        <v>241.22</v>
+      </c>
+      <c r="E259">
+        <v>140.81</v>
       </c>
     </row>
   </sheetData>
